--- a/resources/admissionForNewPatient.xlsx
+++ b/resources/admissionForNewPatient.xlsx
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="30">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="75">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="45">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57" s="1">
         <v>1</v>
@@ -1934,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/resources/admissionForNewPatient.xlsx
+++ b/resources/admissionForNewPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="135">
   <si>
     <t>Xpath</t>
   </si>
@@ -412,6 +412,15 @@
   </si>
   <si>
     <t>//*[@id="input_134"]</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -453,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -462,6 +471,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -771,7 +783,7 @@
     <col min="5" max="16384" width="24.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,8 +805,11 @@
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
+      <c r="H1" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
@@ -814,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -834,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
@@ -854,7 +869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -867,8 +882,11 @@
       <c r="D5" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="45">
+      <c r="H5" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45">
       <c r="A6" s="1" t="s">
         <v>90</v>
       </c>
@@ -888,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45">
+    <row r="7" spans="1:8" ht="45">
       <c r="A7" s="1" t="s">
         <v>91</v>
       </c>
@@ -908,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>94</v>
       </c>
@@ -922,7 +940,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>95</v>
       </c>
@@ -936,7 +954,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>96</v>
       </c>
@@ -950,7 +968,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>97</v>
       </c>
@@ -964,7 +982,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
@@ -978,7 +996,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30">
+    <row r="13" spans="1:8" ht="30">
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
@@ -998,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30">
+    <row r="14" spans="1:8" ht="30">
       <c r="A14" s="1" t="s">
         <v>83</v>
       </c>
@@ -1018,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30">
+    <row r="15" spans="1:8" ht="30">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1038,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60">
+    <row r="16" spans="1:8" ht="60">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1058,7 +1076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="75">
+    <row r="17" spans="1:8" ht="75">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45">
+    <row r="18" spans="1:8" ht="45">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1101,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1123,8 +1141,11 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1144,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1164,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1187,7 +1208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -1207,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -1227,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30">
+    <row r="25" spans="1:8" ht="30">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -1247,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -1267,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1307,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
@@ -1327,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30">
+    <row r="30" spans="1:8" ht="30">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1347,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="60">
+    <row r="31" spans="1:8" ht="60">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -1367,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="75">
+    <row r="32" spans="1:8" ht="75">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -1387,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
@@ -1410,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
@@ -1430,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -1450,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
@@ -1470,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30">
+    <row r="37" spans="1:8" ht="30">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
@@ -1490,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="75">
+    <row r="38" spans="1:8" ht="75">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -1510,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="45">
+    <row r="39" spans="1:8" ht="45">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1532,8 +1553,11 @@
       <c r="G39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1556,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1576,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1599,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
@@ -1622,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" s="3" t="s">
         <v>44</v>
       </c>
@@ -1642,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30">
+    <row r="45" spans="1:8" ht="30">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -1662,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -1685,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30">
+    <row r="47" spans="1:8" ht="30">
       <c r="A47" s="1" t="s">
         <v>31</v>
       </c>
@@ -1705,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="75">
+    <row r="48" spans="1:8" ht="75">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -1725,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -1748,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
@@ -1771,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -1794,7 +1818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30">
+    <row r="52" spans="1:8" ht="30">
       <c r="A52" s="1" t="s">
         <v>31</v>
       </c>
@@ -1814,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30">
+    <row r="53" spans="1:8" ht="30">
       <c r="A53" s="1" t="s">
         <v>62</v>
       </c>
@@ -1834,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="45">
+    <row r="54" spans="1:8" ht="45">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -1854,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30">
+    <row r="55" spans="1:8" ht="30">
       <c r="A55" s="1" t="s">
         <v>68</v>
       </c>
@@ -1874,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30">
+    <row r="56" spans="1:8" ht="30">
       <c r="A56" s="1" t="s">
         <v>74</v>
       </c>
@@ -1896,8 +1920,11 @@
       <c r="G56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="30">
+      <c r="H56" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30">
       <c r="A57" s="1" t="s">
         <v>73</v>
       </c>
@@ -1917,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="30">
+    <row r="58" spans="1:8" ht="30">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>

--- a/resources/admissionForNewPatient.xlsx
+++ b/resources/admissionForNewPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="130">
   <si>
     <t>Xpath</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Edit</t>
   </si>
   <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-sidenav[1]/md-content/form/div/md-datepicker/div[1]/input</t>
-  </si>
-  <si>
     <t>Medical Record Number</t>
   </si>
   <si>
@@ -279,9 +276,6 @@
     <t>che</t>
   </si>
   <si>
-    <t>//*[@id="select_option_90"]</t>
-  </si>
-  <si>
     <t>/html/body/div[1]/div/md-content/md-content/div[3]/md-content/md-list/md-list-item/div/div[1]/button</t>
   </si>
   <si>
@@ -315,21 +309,6 @@
     <t>zip</t>
   </si>
   <si>
-    <t>//*[@id="input_43"]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_45"]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_46"]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_47"]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_48"]</t>
-  </si>
-  <si>
     <t>206 Dame DR</t>
   </si>
   <si>
@@ -345,75 +324,6 @@
     <t>95032</t>
   </si>
   <si>
-    <t>//*[@id="input_87"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_93"]</t>
-  </si>
-  <si>
-    <t>//*[@id="fl-input-95"]</t>
-  </si>
-  <si>
-    <t>//*[@id="ul-95"]/li</t>
-  </si>
-  <si>
-    <t>//*[@id="select_101"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_option_97"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_108"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_option_104"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_option_105"]</t>
-  </si>
-  <si>
-    <t>//*[@id="fl-input-113"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_116"]</t>
-  </si>
-  <si>
-    <t>//*[@id="ul-113"]/li</t>
-  </si>
-  <si>
-    <t>//*[@id="select_option_114"]</t>
-  </si>
-  <si>
-    <t>//*[@id="fl-input-124"]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_125"]</t>
-  </si>
-  <si>
-    <t>//*[@id="ul-124"]/li</t>
-  </si>
-  <si>
-    <t>//*[@id="input_126"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_129"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_option_127"]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_131"]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_132"]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_133"]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_134"]</t>
-  </si>
-  <si>
     <t>Default Value</t>
   </si>
   <si>
@@ -421,6 +331,81 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>//md-datepicker[@ng-model="vm.event.referralDate"]/div[1]/input</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.patientInfo.address.address"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.patientInfo.address.city"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.patientInfo.address.county"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.patientInfo.address.state"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.patientInfo.address.zipcode"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.admission.medicalRecordNumber"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.admission.admissionTransferStatus"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[1]</t>
+  </si>
+  <si>
+    <t>//input[@aria-label="Approving Manager"]</t>
+  </si>
+  <si>
+    <t>//md-virtual-repeat-container[@class="md-autocomplete-suggestions-container md-whiteframe-z1 md-virtual-repeat-container md-orient-vertical md-cs-content-theme-theme"]/div/div[2]/ul/li[1]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.admission.patientDischargeStatus"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.admission.specialProgram"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[2]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.event.primaryPhysicianVerified"]</t>
+  </si>
+  <si>
+    <t>//input[@aria-label="Primary Insurance"]</t>
+  </si>
+  <si>
+    <t>//input[@aria-label="Primary Physician"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.policyNumber"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.event.insuranceVerified"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.admission.authCode"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.preAuth.RN"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.preAuth.OT"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.preAuth.PT"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.admission.hicnumber"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[3]</t>
   </si>
 </sst>
 </file>
@@ -770,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -806,15 +791,15 @@
         <v>9</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30">
       <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -831,10 +816,10 @@
     </row>
     <row r="3" spans="1:8" ht="30">
       <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -851,10 +836,10 @@
     </row>
     <row r="4" spans="1:8" ht="30">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -871,27 +856,27 @@
     </row>
     <row r="5" spans="1:8" ht="30">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -908,10 +893,10 @@
     </row>
     <row r="7" spans="1:8" ht="45">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -928,80 +913,80 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1018,10 +1003,10 @@
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1041,7 +1026,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1061,7 +1046,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1096,12 +1081,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45">
+    <row r="18" spans="1:8" ht="30">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
@@ -1118,19 +1103,22 @@
       <c r="G18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1140,17 +1128,14 @@
       </c>
       <c r="G19" s="1">
         <v>1</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1167,10 +1152,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1187,16 +1172,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1210,10 +1195,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1230,10 +1215,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1250,10 +1235,10 @@
     </row>
     <row r="25" spans="1:8" ht="30">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1270,30 +1255,30 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45">
+      <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1308,12 +1293,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="45">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1330,10 +1315,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1350,10 +1335,10 @@
     </row>
     <row r="30" spans="1:8" ht="30">
       <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -1370,10 +1355,10 @@
     </row>
     <row r="31" spans="1:8" ht="60">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
@@ -1390,10 +1375,10 @@
     </row>
     <row r="32" spans="1:8" ht="75">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -1410,16 +1395,16 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1433,10 +1418,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
@@ -1453,7 +1438,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>119</v>
@@ -1473,10 +1458,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
@@ -1493,10 +1478,10 @@
     </row>
     <row r="37" spans="1:8" ht="30">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
@@ -1513,10 +1498,10 @@
     </row>
     <row r="38" spans="1:8" ht="75">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
@@ -1536,13 +1521,13 @@
         <v>6</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -1554,21 +1539,21 @@
         <v>1</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -1582,10 +1567,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
@@ -1602,16 +1587,16 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -1625,16 +1610,16 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -1648,10 +1633,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -1668,10 +1653,10 @@
     </row>
     <row r="45" spans="1:8" ht="30">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>5</v>
@@ -1688,16 +1673,16 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -1711,10 +1696,10 @@
     </row>
     <row r="47" spans="1:8" ht="30">
       <c r="A47" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
@@ -1731,10 +1716,10 @@
     </row>
     <row r="48" spans="1:8" ht="75">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
@@ -1751,16 +1736,16 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -1774,16 +1759,16 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -1797,16 +1782,16 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -1820,10 +1805,10 @@
     </row>
     <row r="52" spans="1:8" ht="30">
       <c r="A52" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>5</v>
@@ -1840,10 +1825,10 @@
     </row>
     <row r="53" spans="1:8" ht="30">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
@@ -1860,10 +1845,10 @@
     </row>
     <row r="54" spans="1:8" ht="45">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>5</v>
@@ -1880,10 +1865,10 @@
     </row>
     <row r="55" spans="1:8" ht="30">
       <c r="A55" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>5</v>
@@ -1900,16 +1885,16 @@
     </row>
     <row r="56" spans="1:8" ht="30">
       <c r="A56" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -1921,15 +1906,15 @@
         <v>1</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="30">
       <c r="A57" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
@@ -1946,10 +1931,10 @@
     </row>
     <row r="58" spans="1:8" ht="30">
       <c r="A58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>

--- a/resources/admissionForNewPatient.xlsx
+++ b/resources/admissionForNewPatient.xlsx
@@ -756,7 +756,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="G3" sqref="G3:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30">
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30">
@@ -851,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30">
@@ -867,6 +867,9 @@
       <c r="D5" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>103</v>
       </c>
@@ -888,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45">
@@ -908,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -924,6 +927,9 @@
       <c r="D8" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -938,6 +944,9 @@
       <c r="D9" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -952,6 +961,9 @@
       <c r="D10" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -966,6 +978,9 @@
       <c r="D11" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -980,6 +995,9 @@
       <c r="D12" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="A13" s="1" t="s">
@@ -998,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30">
@@ -1018,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30">
@@ -1038,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="60">
@@ -1058,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="75">
@@ -1078,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30">
@@ -1094,14 +1112,8 @@
       <c r="D18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>104</v>
@@ -1127,10 +1139,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1147,10 +1159,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1167,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1190,10 +1202,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60">
       <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
@@ -1210,10 +1222,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1230,10 +1242,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="45">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1250,10 +1262,10 @@
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1270,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="45">
@@ -1290,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="45">
@@ -1310,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1330,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30">
@@ -1350,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="60">
@@ -1370,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="75">
@@ -1390,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1413,10 +1425,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="60">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -1433,10 +1445,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
@@ -1453,10 +1465,10 @@
         <v>1</v>
       </c>
       <c r="G35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="45">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -1473,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30">
@@ -1493,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="75">
@@ -1513,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="45">
@@ -1536,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>104</v>
@@ -1562,10 +1574,10 @@
         <v>1</v>
       </c>
       <c r="G40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="60">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -1582,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1605,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1628,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1648,10 +1660,10 @@
         <v>1</v>
       </c>
       <c r="G44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="45">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1668,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1691,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="30">
@@ -1711,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="75">
@@ -1731,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1754,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1777,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1800,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30">
@@ -1820,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="30">
@@ -1840,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="45">
@@ -1860,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="30">
@@ -1880,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="30">
@@ -1903,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>103</v>
@@ -1926,7 +1938,7 @@
         <v>2</v>
       </c>
       <c r="G57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="30">

--- a/resources/admissionForNewPatient.xlsx
+++ b/resources/admissionForNewPatient.xlsx
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30">
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30">
@@ -851,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30">
@@ -868,7 +868,7 @@
         <v>74</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>103</v>
@@ -891,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45">
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -928,7 +928,7 @@
         <v>97</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -945,7 +945,7 @@
         <v>98</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -962,7 +962,7 @@
         <v>99</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -979,7 +979,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -996,7 +996,7 @@
         <v>101</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30">
@@ -1016,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30">
@@ -1036,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30">
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="60">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="75">
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30">
@@ -1113,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>104</v>
@@ -1139,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30">
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="45">
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="60">
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30">
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="45">
@@ -1262,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30">
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="45">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="45">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30">
@@ -1362,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="60">
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="75">
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="60">
@@ -1445,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30">
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="45">
@@ -1485,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30">
@@ -1505,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="75">
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="45">
@@ -1548,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>104</v>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="60">
@@ -1594,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="45">
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1703,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="30">
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="75">
@@ -1743,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1789,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1812,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30">
@@ -1832,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="30">
@@ -1852,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="45">
@@ -1872,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="30">
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="30">
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>103</v>
@@ -1938,7 +1938,7 @@
         <v>2</v>
       </c>
       <c r="G57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="30">

--- a/resources/admissionForNewPatient.xlsx
+++ b/resources/admissionForNewPatient.xlsx
@@ -756,7 +756,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -1832,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="30">

--- a/resources/admissionForNewPatient.xlsx
+++ b/resources/admissionForNewPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="134">
   <si>
     <t>Xpath</t>
   </si>
@@ -406,6 +406,18 @@
   </si>
   <si>
     <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[3]</t>
+  </si>
+  <si>
+    <t>Updating</t>
+  </si>
+  <si>
+    <t>//div[@class="pg-loading-screen pg-loading pg-loaded"]/div/div/div[@class="pg-loading-center-middle"]</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>//md-toast/div/span</t>
   </si>
 </sst>
 </file>
@@ -753,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -1019,278 +1031,269 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="60">
-      <c r="A16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="60">
+      <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="75">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="75">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30">
       <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="45">
-      <c r="A21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="45">
+      <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="60">
-      <c r="A23" s="1" t="s">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="60">
+      <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30">
-      <c r="A24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30">
+      <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="45">
-      <c r="A25" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="45">
+      <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30">
-      <c r="A26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30">
+      <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="45">
-      <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1310,170 +1313,161 @@
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30">
-      <c r="A30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="60">
-      <c r="A31" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="60">
+      <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="75">
-      <c r="A32" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="75">
+      <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="60">
-      <c r="A34" s="1" t="s">
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="60">
+      <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="30">
-      <c r="A35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="45">
-      <c r="A36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
@@ -1490,56 +1484,53 @@
     </row>
     <row r="37" spans="1:8" ht="30">
       <c r="A37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="45">
+      <c r="A38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30">
+      <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="75">
-      <c r="A38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="45">
-      <c r="A39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -1549,40 +1540,25 @@
       </c>
       <c r="G39" s="1">
         <v>1</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="60">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="75">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
@@ -1597,18 +1573,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="3" t="s">
-        <v>41</v>
+    <row r="42" spans="1:8" ht="45">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -1619,19 +1595,22 @@
       <c r="G42" s="1">
         <v>1</v>
       </c>
+      <c r="H42" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="3" t="s">
-        <v>42</v>
+      <c r="A43" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -1643,12 +1622,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="3" t="s">
-        <v>43</v>
+    <row r="44" spans="1:8" ht="60">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -1663,15 +1642,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="45">
-      <c r="A45" s="1" t="s">
-        <v>45</v>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -1685,16 +1667,16 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -1706,12 +1688,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30">
-      <c r="A47" s="1" t="s">
-        <v>30</v>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
@@ -1726,12 +1708,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="75">
+    <row r="48" spans="1:8" ht="45">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
@@ -1747,17 +1729,17 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="1" t="s">
-        <v>49</v>
+      <c r="A49" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -1769,18 +1751,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" ht="30">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -1794,96 +1773,93 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="75">
+      <c r="A52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="30">
-      <c r="A52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="30">
-      <c r="A53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="45">
-      <c r="A54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="30">
-      <c r="A55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -1897,16 +1873,13 @@
     </row>
     <row r="56" spans="1:8" ht="30">
       <c r="A56" s="1" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -1915,50 +1888,166 @@
         <v>1</v>
       </c>
       <c r="G56" s="1">
-        <v>1</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="30">
       <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="45">
+      <c r="A59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30">
+      <c r="A60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="30">
+      <c r="A61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="30">
+      <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1">
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
         <v>2</v>
       </c>
-      <c r="G57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="30">
-      <c r="A58" s="1" t="s">
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30">
+      <c r="A63" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1">
-        <v>3</v>
+      <c r="C63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="45">
+      <c r="A64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/resources/admissionForNewPatient.xlsx
+++ b/resources/admissionForNewPatient.xlsx
@@ -267,9 +267,6 @@
     <t>select first patient</t>
   </si>
   <si>
-    <t>tes</t>
-  </si>
-  <si>
     <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[2]/md-expansion-panel-expanded/md-expansion-panel-content/div[1]/md-card[1]/md-card-actions/button/i</t>
   </si>
   <si>
@@ -418,6 +415,9 @@
   </si>
   <si>
     <t>//md-toast/div/span</t>
+  </si>
+  <si>
+    <t>user1</t>
   </si>
 </sst>
 </file>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:C65"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -803,7 +803,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30">
@@ -883,15 +883,15 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -908,10 +908,10 @@
     </row>
     <row r="7" spans="1:8" ht="45">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -928,16 +928,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -945,16 +945,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -962,16 +962,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -979,16 +979,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -996,16 +996,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1033,13 +1033,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30">
@@ -1127,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
@@ -1139,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30">
@@ -1147,7 +1147,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
@@ -1170,7 +1170,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1190,7 +1190,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1210,13 +1210,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1225,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="60">
@@ -1233,7 +1233,7 @@
         <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1253,7 +1253,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1273,7 +1273,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1293,7 +1293,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1313,7 +1313,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1333,7 +1333,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1390,13 +1390,13 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="60">
@@ -1424,7 +1424,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
@@ -1444,13 +1444,13 @@
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
@@ -1487,7 +1487,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
@@ -1507,7 +1507,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
@@ -1544,13 +1544,13 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="75">
@@ -1596,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1604,7 +1604,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>7</v>
@@ -1627,7 +1627,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -1647,7 +1647,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>7</v>
@@ -1670,7 +1670,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>7</v>
@@ -1693,7 +1693,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
@@ -1713,7 +1713,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
@@ -1733,7 +1733,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>7</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="75">
@@ -1807,7 +1807,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>7</v>
@@ -1830,7 +1830,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>7</v>
@@ -1853,7 +1853,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>7</v>
@@ -1913,13 +1913,13 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="45">
@@ -1985,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="30">
@@ -2030,24 +2030,24 @@
     </row>
     <row r="64" spans="1:8" ht="45">
       <c r="A64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/resources/admissionForNewPatient.xlsx
+++ b/resources/admissionForNewPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="130">
   <si>
     <t>Xpath</t>
   </si>
@@ -165,18 +165,12 @@
     <t>Pre-auth Info</t>
   </si>
   <si>
-    <t>RN</t>
-  </si>
-  <si>
     <t>//*[@id="ui-admin-email"]/md-content/md-sidenav[6]/md-content/button</t>
   </si>
   <si>
     <t>PT</t>
   </si>
   <si>
-    <t>OT</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -388,12 +382,6 @@
   </si>
   <si>
     <t>//input[@ng-model="vm.admission.authCode"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.event.preAuth.RN"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.event.preAuth.OT"]</t>
   </si>
   <si>
     <t>//input[@ng-model="vm.event.preAuth.PT"]</t>
@@ -765,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -803,15 +791,15 @@
         <v>9</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -828,10 +816,10 @@
     </row>
     <row r="3" spans="1:8" ht="30">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -848,10 +836,10 @@
     </row>
     <row r="4" spans="1:8" ht="30">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -868,30 +856,30 @@
     </row>
     <row r="5" spans="1:8" ht="30">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -908,10 +896,10 @@
     </row>
     <row r="7" spans="1:8" ht="45">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -928,16 +916,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -945,16 +933,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -962,16 +950,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -979,16 +967,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -996,16 +984,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -1013,10 +1001,10 @@
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="A13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1033,21 +1021,21 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1067,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1087,7 +1075,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1127,7 +1115,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
@@ -1139,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30">
@@ -1147,13 +1135,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1170,7 +1158,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1190,7 +1178,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1210,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1230,10 +1218,10 @@
     </row>
     <row r="24" spans="1:8" ht="60">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1253,7 +1241,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1273,7 +1261,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1293,7 +1281,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1313,7 +1301,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1333,7 +1321,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1350,10 +1338,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -1390,13 +1378,13 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="60">
@@ -1404,7 +1392,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
@@ -1424,7 +1412,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
@@ -1444,13 +1432,13 @@
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -1467,7 +1455,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
@@ -1487,7 +1475,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
@@ -1507,7 +1495,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
@@ -1544,13 +1532,13 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="75">
@@ -1596,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1604,7 +1592,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>7</v>
@@ -1627,7 +1615,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -1647,7 +1635,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>7</v>
@@ -1670,7 +1658,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>7</v>
@@ -1693,7 +1681,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
@@ -1713,7 +1701,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
@@ -1733,13 +1721,13 @@
         <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -1773,13 +1761,13 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="75">
@@ -1804,16 +1792,16 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -1825,112 +1813,109 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" ht="30">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="30">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="45">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30">
+      <c r="A58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="30">
+      <c r="A59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1</v>
-      </c>
-      <c r="F55" s="1">
-        <v>1</v>
-      </c>
-      <c r="G55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="30">
-      <c r="A56" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1">
-        <v>1</v>
-      </c>
-      <c r="G56" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="30">
-      <c r="A57" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1</v>
-      </c>
-      <c r="G57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="45">
-      <c r="A59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>5</v>
+      <c r="D59" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -1940,14 +1925,17 @@
       </c>
       <c r="G59" s="1">
         <v>1</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>5</v>
@@ -1956,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" s="1">
         <v>1</v>
@@ -1964,16 +1952,13 @@
     </row>
     <row r="61" spans="1:8" ht="30">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -1984,70 +1969,27 @@
       <c r="G61" s="1">
         <v>1</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="30">
+    </row>
+    <row r="62" spans="1:8" ht="45">
       <c r="A62" s="1" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1">
-        <v>2</v>
-      </c>
-      <c r="G62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="30">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1</v>
-      </c>
-      <c r="G63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="45">
-      <c r="A64" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/resources/admissionForNewPatient.xlsx
+++ b/resources/admissionForNewPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="126">
   <si>
     <t>Xpath</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Kaiser Transfer</t>
   </si>
   <si>
-    <t>Approving Manager</t>
-  </si>
-  <si>
     <t>Patient Discharge Status</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>//*[@id="ui-admin-email"]/md-content/md-sidenav[5]/md-content/button</t>
   </si>
   <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[2]/md-expansion-panel-expanded/md-expansion-panel-content/div[2]/md-card[2]/md-card-actions/button</t>
-  </si>
-  <si>
     <t>Pre-auth Info</t>
   </si>
   <si>
@@ -183,229 +177,223 @@
     <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[2]/md-expansion-panel-collapsed/md-icon</t>
   </si>
   <si>
-    <t>Select first</t>
-  </si>
-  <si>
     <t>/html/body/md-backdrop</t>
   </si>
   <si>
     <t>clcose background</t>
   </si>
   <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>123123</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[3]</t>
+  </si>
+  <si>
+    <t>In Approval Tab</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/div/div/div/div[1]/button[1]</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/div/div/div/div[2]/form/input</t>
+  </si>
+  <si>
+    <t>Start SOC</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/md-list/md-list-item/div/button</t>
+  </si>
+  <si>
+    <t>Select 1st Patient</t>
+  </si>
+  <si>
+    <t>Search Bar</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Admission</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/div/div/div/div[1]/button[1]/md-icon</t>
+  </si>
+  <si>
+    <t>search button</t>
+  </si>
+  <si>
+    <t>search bar</t>
+  </si>
+  <si>
+    <t>select first patient</t>
+  </si>
+  <si>
+    <t>che</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/md-content/md-content/div[3]/md-content/md-list/md-list-item/div/div[1]/button</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/form/div[1]/md-card[2]/md-card-actions/button</t>
+  </si>
+  <si>
+    <t>Basic Information</t>
+  </si>
+  <si>
+    <t>Contact Info</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-sidenav[2]/md-content/button</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>206 Dame DR</t>
+  </si>
+  <si>
+    <t>San Bruno</t>
+  </si>
+  <si>
+    <t>Santa Clara County</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>95032</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>//md-datepicker[@ng-model="vm.event.referralDate"]/div[1]/input</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.patientInfo.address.address"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.patientInfo.address.city"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.patientInfo.address.county"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.patientInfo.address.state"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.patientInfo.address.zipcode"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.admission.medicalRecordNumber"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.admission.admissionTransferStatus"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[1]</t>
+  </si>
+  <si>
+    <t>//md-virtual-repeat-container[@class="md-autocomplete-suggestions-container md-whiteframe-z1 md-virtual-repeat-container md-orient-vertical md-cs-content-theme-theme"]/div/div[2]/ul/li[1]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.admission.patientDischargeStatus"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.admission.specialProgram"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[2]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.event.primaryPhysicianVerified"]</t>
+  </si>
+  <si>
+    <t>//input[@aria-label="Primary Insurance"]</t>
+  </si>
+  <si>
+    <t>//input[@aria-label="Primary Physician"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.policyNumber"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.event.insuranceVerified"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.admission.authCode"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.preAuth.PT"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.admission.hicnumber"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[3]</t>
+  </si>
+  <si>
+    <t>Updating</t>
+  </si>
+  <si>
+    <t>//div[@class="pg-loading-screen pg-loading pg-loaded"]/div/div/div[@class="pg-loading-center-middle"]</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>//md-toast/div/span</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/md-content/div/section/div[10]/button</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/md-content/div/section/div[1]/button</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[2]/md-expansion-panel-expanded/md-expansion-panel-content/div[1]/md-card[1]/md-card-actions/button</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[2]/md-expansion-panel-expanded/md-expansion-panel-content/div[1]/md-card[2]/md-card-actions/button</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-actions/button[3]</t>
+  </si>
+  <si>
     <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-actions/button[2]</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>123123</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[3]</t>
-  </si>
-  <si>
-    <t>In Approval Tab</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/div/div/div/div[1]/button[1]</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/div/div/div/div[2]/form/input</t>
-  </si>
-  <si>
-    <t>Start SOC</t>
-  </si>
-  <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-actions/button[1]</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/md-list/md-list-item/div/button</t>
-  </si>
-  <si>
-    <t>Select 1st Patient</t>
-  </si>
-  <si>
-    <t>Search Bar</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/div/section/div[9]/button</t>
-  </si>
-  <si>
-    <t>Admission</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/div/section/div[1]/button</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/div/div/div/div[1]/button[1]/md-icon</t>
-  </si>
-  <si>
-    <t>search button</t>
-  </si>
-  <si>
-    <t>search bar</t>
-  </si>
-  <si>
-    <t>select first patient</t>
-  </si>
-  <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[2]/md-expansion-panel-expanded/md-expansion-panel-content/div[1]/md-card[1]/md-card-actions/button/i</t>
-  </si>
-  <si>
-    <t>che</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/md-content/md-content/div[3]/md-content/md-list/md-list-item/div/div[1]/button</t>
-  </si>
-  <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/form/div[1]/md-card[2]/md-card-actions/button</t>
-  </si>
-  <si>
-    <t>Basic Information</t>
-  </si>
-  <si>
-    <t>Contact Info</t>
-  </si>
-  <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-sidenav[2]/md-content/button</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>206 Dame DR</t>
-  </si>
-  <si>
-    <t>San Bruno</t>
-  </si>
-  <si>
-    <t>Santa Clara County</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>95032</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>//md-datepicker[@ng-model="vm.event.referralDate"]/div[1]/input</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.patientInfo.address.address"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.patientInfo.address.city"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.patientInfo.address.county"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.patientInfo.address.state"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.patientInfo.address.zipcode"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.admission.medicalRecordNumber"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.admission.admissionTransferStatus"]</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[1]</t>
-  </si>
-  <si>
-    <t>//input[@aria-label="Approving Manager"]</t>
-  </si>
-  <si>
-    <t>//md-virtual-repeat-container[@class="md-autocomplete-suggestions-container md-whiteframe-z1 md-virtual-repeat-container md-orient-vertical md-cs-content-theme-theme"]/div/div[2]/ul/li[1]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.admission.patientDischargeStatus"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.admission.specialProgram"]</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[2]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.event.primaryPhysicianVerified"]</t>
-  </si>
-  <si>
-    <t>//input[@aria-label="Primary Insurance"]</t>
-  </si>
-  <si>
-    <t>//input[@aria-label="Primary Physician"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.event.policyNumber"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.event.insuranceVerified"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.admission.authCode"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.event.preAuth.PT"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.admission.hicnumber"]</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[3]</t>
-  </si>
-  <si>
-    <t>Updating</t>
-  </si>
-  <si>
-    <t>//div[@class="pg-loading-screen pg-loading pg-loaded"]/div/div/div[@class="pg-loading-center-middle"]</t>
-  </si>
-  <si>
-    <t>visible</t>
-  </si>
-  <si>
-    <t>//md-toast/div/span</t>
-  </si>
-  <si>
-    <t>user1</t>
   </si>
 </sst>
 </file>
@@ -753,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -791,15 +779,15 @@
         <v>9</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -808,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -816,10 +804,10 @@
     </row>
     <row r="3" spans="1:8" ht="30">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -836,10 +824,10 @@
     </row>
     <row r="4" spans="1:8" ht="30">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -856,30 +844,30 @@
     </row>
     <row r="5" spans="1:8" ht="30">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -896,10 +884,10 @@
     </row>
     <row r="7" spans="1:8" ht="45">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -916,16 +904,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -933,16 +921,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -950,16 +938,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -967,16 +955,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -984,16 +972,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -1001,10 +989,10 @@
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="A13" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1021,21 +1009,21 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1055,7 +1043,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1075,7 +1063,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1115,7 +1103,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
@@ -1127,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30">
@@ -1135,13 +1123,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1158,7 +1146,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1178,7 +1166,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1193,18 +1181,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="30">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1213,15 +1198,15 @@
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1238,10 +1223,10 @@
     </row>
     <row r="25" spans="1:8" ht="30">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1258,10 +1243,10 @@
     </row>
     <row r="26" spans="1:8" ht="45">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1276,12 +1261,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30">
+    <row r="27" spans="1:8" ht="45">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1296,12 +1281,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="45">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1316,12 +1301,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="45">
+    <row r="29" spans="1:8" ht="30">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1338,414 +1323,405 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="60">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="75">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="45">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="60">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="45">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="60">
-      <c r="A33" s="1" t="s">
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30">
+      <c r="A41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="75">
+      <c r="A43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="75">
-      <c r="A34" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="60">
+      <c r="A45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30">
+      <c r="A46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="45">
+      <c r="A47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30">
+      <c r="A48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="60">
-      <c r="A36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="30">
-      <c r="A37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="45">
-      <c r="A38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="30">
-      <c r="A39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="75">
-      <c r="A41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="45">
-      <c r="A42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="60">
-      <c r="A44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    </row>
+    <row r="50" spans="1:8" ht="75">
+      <c r="A50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="45">
-      <c r="A48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="30">
-      <c r="A50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C50" s="1" t="s">
         <v>5</v>
       </c>
@@ -1753,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="1">
         <v>1</v>
@@ -1761,18 +1737,30 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="75">
+        <v>7</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30">
       <c r="A52" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>47</v>
@@ -1787,21 +1775,18 @@
         <v>1</v>
       </c>
       <c r="G52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30">
       <c r="A53" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -1813,12 +1798,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30">
+    <row r="54" spans="1:8" ht="45">
       <c r="A54" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>5</v>
@@ -1830,15 +1815,15 @@
         <v>1</v>
       </c>
       <c r="G54" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="30">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>5</v>
@@ -1853,44 +1838,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" ht="30">
       <c r="A56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30">
+      <c r="A57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="45">
-      <c r="A57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1</v>
-      </c>
-      <c r="G57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="30">
-      <c r="A58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
       </c>
@@ -1904,92 +1901,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="30">
+    <row r="59" spans="1:8" ht="45">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" s="1">
-        <v>1</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1</v>
-      </c>
-      <c r="G59" s="1">
-        <v>1</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="30">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="1">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1">
-        <v>2</v>
-      </c>
-      <c r="G60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="30">
-      <c r="A61" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="1">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1</v>
-      </c>
-      <c r="G61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="45">
-      <c r="A62" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/resources/admissionForNewPatient.xlsx
+++ b/resources/admissionForNewPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="135">
   <si>
     <t>Xpath</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Edit</t>
   </si>
   <si>
-    <t>Medical Record Number</t>
-  </si>
-  <si>
     <t>Transfer Status Assigned</t>
   </si>
   <si>
@@ -132,15 +129,9 @@
     <t>Select Primary Insurance</t>
   </si>
   <si>
-    <t>7955125</t>
-  </si>
-  <si>
     <t>5465225</t>
   </si>
   <si>
-    <t>HIC Number</t>
-  </si>
-  <si>
     <t>Primary Policy Number</t>
   </si>
   <si>
@@ -180,15 +171,9 @@
     <t>/html/body/md-backdrop</t>
   </si>
   <si>
-    <t>clcose background</t>
-  </si>
-  <si>
     <t>Submit</t>
   </si>
   <si>
-    <t>123456</t>
-  </si>
-  <si>
     <t>123123</t>
   </si>
   <si>
@@ -198,21 +183,12 @@
     <t>In Approval Tab</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/div/div/div/div[1]/button[1]</t>
-  </si>
-  <si>
     <t>Search</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/div/div/div/div[2]/form/input</t>
-  </si>
-  <si>
     <t>Start SOC</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/md-list/md-list-item/div/button</t>
-  </si>
-  <si>
     <t>Select 1st Patient</t>
   </si>
   <si>
@@ -228,9 +204,6 @@
     <t>Admission</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/div/div/div/div[1]/button[1]/md-icon</t>
-  </si>
-  <si>
     <t>search button</t>
   </si>
   <si>
@@ -243,9 +216,6 @@
     <t>che</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/md-content/md-content/div[3]/md-content/md-list/md-list-item/div/div[1]/button</t>
-  </si>
-  <si>
     <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/form/div[1]/md-card[2]/md-card-actions/button</t>
   </si>
   <si>
@@ -318,9 +288,6 @@
     <t>//input[@ng-model="vm.patientInfo.address.zipcode"]</t>
   </si>
   <si>
-    <t>//input[@ng-model="vm.admission.medicalRecordNumber"]</t>
-  </si>
-  <si>
     <t>//md-select[@ng-model="vm.admission.admissionTransferStatus"]</t>
   </si>
   <si>
@@ -360,9 +327,6 @@
     <t>//input[@ng-model="vm.event.preAuth.PT"]</t>
   </si>
   <si>
-    <t>//input[@ng-model="vm.admission.hicnumber"]</t>
-  </si>
-  <si>
     <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[3]</t>
   </si>
   <si>
@@ -390,10 +354,73 @@
     <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[2]/md-expansion-panel-expanded/md-expansion-panel-content/div[1]/md-card[2]/md-card-actions/button</t>
   </si>
   <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-actions/button[3]</t>
-  </si>
-  <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-actions/button[2]</t>
+    <t>/html/body/div/div/md-content/md-content/md-content[3]/md-content/div/div/div/div[1]/button[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/md-content[3]/md-content/div/div/div/div[2]/form/input</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/md-content[3]/md-content/md-list/md-list-item/div/div[1]/button</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/md-content[3]/md-content/md-list/md-list-item/div/button</t>
+  </si>
+  <si>
+    <t>close background</t>
+  </si>
+  <si>
+    <t>Special Order</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@value="NO"])[2]</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@value="NO"])[1]</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@value="NO"])[3]</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@value="NO"])[4]</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@value="NO"])[5]</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@value="NO"])[6]</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@value="NO"])[7]</t>
+  </si>
+  <si>
+    <t>Lab Draw</t>
+  </si>
+  <si>
+    <t>DME</t>
+  </si>
+  <si>
+    <t>Wound Care</t>
+  </si>
+  <si>
+    <t>Foley Catheter</t>
+  </si>
+  <si>
+    <t>Iv Infusion</t>
+  </si>
+  <si>
+    <t>Enteral Feeding</t>
+  </si>
+  <si>
+    <t>Tracheostomy</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[4]</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-actions/button</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-actions/div/button[2]</t>
   </si>
 </sst>
 </file>
@@ -741,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -779,15 +806,15 @@
         <v>9</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -804,10 +831,10 @@
     </row>
     <row r="3" spans="1:8" ht="30">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -822,12 +849,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -842,32 +869,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45">
-      <c r="A6" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -882,12 +909,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -904,16 +931,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -921,16 +948,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -938,16 +965,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -955,16 +982,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -972,16 +999,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -989,10 +1016,10 @@
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1009,21 +1036,21 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1043,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1063,7 +1090,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1103,7 +1130,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
@@ -1115,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30">
@@ -1123,13 +1150,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1141,12 +1165,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30">
+    <row r="21" spans="1:8" ht="45">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1161,12 +1185,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="45">
+    <row r="22" spans="1:8" ht="30">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1181,12 +1205,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30">
+    <row r="23" spans="1:8" ht="45">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1201,12 +1225,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="45">
+    <row r="24" spans="1:8" ht="30">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1221,12 +1245,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30">
+    <row r="25" spans="1:8" ht="45">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1243,147 +1267,153 @@
     </row>
     <row r="26" spans="1:8" ht="45">
       <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="60">
+      <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="45">
-      <c r="A27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="75">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="45">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="60">
-      <c r="A31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="75">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="45">
+      <c r="H32" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1394,43 +1424,40 @@
       <c r="G33" s="1">
         <v>1</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+    </row>
+    <row r="34" spans="1:7" ht="60">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="60">
-      <c r="A35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
@@ -1441,256 +1468,241 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="D38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30">
+      <c r="A39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="75">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="D42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="60">
+      <c r="A43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30">
+      <c r="A44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="45">
+      <c r="A45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30">
+      <c r="A46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="75">
+      <c r="A48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="45">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30">
-      <c r="A41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="75">
-      <c r="A43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="60">
-      <c r="A45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="30">
-      <c r="A46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="45">
-      <c r="A47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="30">
-      <c r="A48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
       </c>
@@ -1698,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" s="1">
         <v>1</v>
@@ -1706,21 +1718,33 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="75">
+        <v>7</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30">
       <c r="A50" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>5</v>
@@ -1729,24 +1753,21 @@
         <v>1</v>
       </c>
       <c r="F50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -1758,12 +1779,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="30">
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>5</v>
@@ -1775,15 +1796,15 @@
         <v>1</v>
       </c>
       <c r="G52" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
@@ -1795,15 +1816,15 @@
         <v>1</v>
       </c>
       <c r="G53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>5</v>
@@ -1815,15 +1836,15 @@
         <v>1</v>
       </c>
       <c r="G54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>5</v>
@@ -1835,18 +1856,18 @@
         <v>1</v>
       </c>
       <c r="G55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -1855,18 +1876,15 @@
         <v>1</v>
       </c>
       <c r="G56" s="1">
-        <v>1</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
@@ -1875,18 +1893,18 @@
         <v>1</v>
       </c>
       <c r="F57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
@@ -1898,29 +1916,152 @@
         <v>1</v>
       </c>
       <c r="G58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="45">
       <c r="A60" s="1" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>118</v>
+        <v>5</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30">
+      <c r="A63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="45">
+      <c r="A65" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/resources/admissionForNewPatient.xlsx
+++ b/resources/admissionForNewPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="443">
   <si>
     <t>Xpath</t>
   </si>
@@ -195,239 +195,1163 @@
     <t>Search Bar</t>
   </si>
   <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Admission</t>
+  </si>
+  <si>
+    <t>search button</t>
+  </si>
+  <si>
+    <t>search bar</t>
+  </si>
+  <si>
+    <t>select first patient</t>
+  </si>
+  <si>
+    <t>che</t>
+  </si>
+  <si>
+    <t>Basic Information</t>
+  </si>
+  <si>
+    <t>Contact Info</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>206 Dame DR</t>
+  </si>
+  <si>
+    <t>San Bruno</t>
+  </si>
+  <si>
+    <t>Santa Clara County</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>95032</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>//md-datepicker[@ng-model="vm.event.referralDate"]/div[1]/input</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.patientInfo.address.address"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.patientInfo.address.city"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.patientInfo.address.county"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.patientInfo.address.state"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.patientInfo.address.zipcode"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.admission.admissionTransferStatus"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[1]</t>
+  </si>
+  <si>
+    <t>//md-virtual-repeat-container[@class="md-autocomplete-suggestions-container md-whiteframe-z1 md-virtual-repeat-container md-orient-vertical md-cs-content-theme-theme"]/div/div[2]/ul/li[1]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.admission.patientDischargeStatus"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.admission.specialProgram"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[2]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.event.primaryPhysicianVerified"]</t>
+  </si>
+  <si>
+    <t>//input[@aria-label="Primary Insurance"]</t>
+  </si>
+  <si>
+    <t>//input[@aria-label="Primary Physician"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.policyNumber"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.event.insuranceVerified"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.admission.authCode"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.preAuth.PT"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[3]</t>
+  </si>
+  <si>
+    <t>Updating</t>
+  </si>
+  <si>
+    <t>//div[@class="pg-loading-screen pg-loading pg-loaded"]/div/div/div[@class="pg-loading-center-middle"]</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>//md-toast/div/span</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/md-content/div/section/div[10]/button</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/md-content/div/section/div[1]/button</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[2]/md-expansion-panel-expanded/md-expansion-panel-content/div[1]/md-card[1]/md-card-actions/button</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[2]/md-expansion-panel-expanded/md-expansion-panel-content/div[1]/md-card[2]/md-card-actions/button</t>
+  </si>
+  <si>
+    <t>close background</t>
+  </si>
+  <si>
+    <t>Special Order</t>
+  </si>
+  <si>
+    <t>Lab Draw</t>
+  </si>
+  <si>
+    <t>DME</t>
+  </si>
+  <si>
+    <t>Wound Care</t>
+  </si>
+  <si>
+    <t>Foley Catheter</t>
+  </si>
+  <si>
+    <t>Iv Infusion</t>
+  </si>
+  <si>
+    <t>Enteral Feeding</t>
+  </si>
+  <si>
+    <t>Tracheostomy</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[4]</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-actions/div/button[2]</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/form/div[2]/md-card[1]/md-card-actions/button</t>
+  </si>
+  <si>
+    <t>Contact Num</t>
+  </si>
+  <si>
+    <t>09755633660</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/md-content[4]/md-content/div/div/div/div[1]/button[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/md-content[4]/md-content/div/div/div/div[2]/form/input</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/md-content[4]/md-content/md-list/md-list-item/div/div[1]/button</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.contacts[0].phoneNumber"][1]</t>
+  </si>
+  <si>
+    <t>Contact Note</t>
+  </si>
+  <si>
+    <t>Test note</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.contacts[0].note"]</t>
+  </si>
+  <si>
+    <t>Contact Num2</t>
+  </si>
+  <si>
+    <t>09287302850</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.contacts[1].phoneNumber"]</t>
+  </si>
+  <si>
+    <t>contactNote2</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.contacts[1].note"]</t>
+  </si>
+  <si>
+    <t>2nd Test Note</t>
+  </si>
+  <si>
+    <t>//button[@ng-disabled="!(contactInfoForm.$valid &amp;&amp; !(contactInfoForm.$pristine) )"]</t>
+  </si>
+  <si>
+    <t>Discharge Address</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.sameAsContactInfo"]</t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>Primary Care Giver</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/form/div[3]/md-card[1]/md-card-actions/button</t>
+  </si>
+  <si>
+    <t>First Name CG</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.editCaregiver.name"]</t>
+  </si>
+  <si>
+    <t>Nami</t>
+  </si>
+  <si>
+    <t>RelationshipCG</t>
+  </si>
+  <si>
+    <t>reldropdown</t>
+  </si>
+  <si>
+    <t>relNum</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.editCaregiver.phoneNumber"]</t>
+  </si>
+  <si>
+    <t>09193649288</t>
+  </si>
+  <si>
+    <t>primCGUpdate</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-sidenav[5]/md-content/form/button</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/md-content[4]/md-content/md-list/md-list-item/div/button</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[4]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.filterShow = false"]</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-sidenav[5]/md-content/form/md-input-container[2]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[4]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[5]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[6]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[7]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[8]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[9]</t>
+  </si>
+  <si>
+    <t>In Schedule</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[4]</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@value="YES"])[1]</t>
+  </si>
+  <si>
+    <t>Ordered Edit</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.openAdmissionSidebar('labDraw-sidenav')"]</t>
+  </si>
+  <si>
+    <t>PT/INR</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="PT/INR"]</t>
+  </si>
+  <si>
+    <t>BMP</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="BMP"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="CMP"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="CBC"]</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>CBC</t>
+  </si>
+  <si>
+    <t>H&amp;H</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="H&amp;H"]</t>
+  </si>
+  <si>
+    <t>ESR</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="ESR"]</t>
+  </si>
+  <si>
+    <t>CRP</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="CRP"]</t>
+  </si>
+  <si>
+    <t>HA1C</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="HA1C"]</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="UA"]</t>
+  </si>
+  <si>
+    <t>C&amp;S</t>
+  </si>
+  <si>
+    <t>Special Instructions</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.labDraw.specialInstructions"]</t>
+  </si>
+  <si>
+    <t>Test Insturctions</t>
+  </si>
+  <si>
+    <t>Update LabDraw</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.updateAdmission('update', 'labDrawForm' )"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="C&amp;S"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Others"]</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@value="YES"])[2]</t>
+  </si>
+  <si>
+    <t>Edit DME</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.openAdmissionSidebar('dme-sidenav')"]</t>
+  </si>
+  <si>
+    <t>Cane</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Cane"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Walker"]</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Cruches</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Crutches"]</t>
+  </si>
+  <si>
+    <t>Bedside Commode</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Bedside Commode"]</t>
+  </si>
+  <si>
+    <t>Shower Chair</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Shower Chair"]</t>
+  </si>
+  <si>
+    <t>Tub/Transfer Bench</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Tub/Transfer Bench"]</t>
+  </si>
+  <si>
+    <t>Wheelchair</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Wheelchair"]</t>
+  </si>
+  <si>
+    <t>Hospital Bed</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Hospital Bed"]</t>
+  </si>
+  <si>
+    <t>Wheelchair Cushion</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Wheelchair Cushion"]</t>
+  </si>
+  <si>
+    <t>Trapeze</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Trapeze"]</t>
+  </si>
+  <si>
+    <t>Elevated Toilet Seat</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Elevated Toilet Seat"]</t>
+  </si>
+  <si>
+    <t>Grab Bars</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Grab Bars"]</t>
+  </si>
+  <si>
+    <t>Nebulizer</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Nebulizer"]</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Oxygen"]</t>
+  </si>
+  <si>
+    <t>Test Others</t>
+  </si>
+  <si>
+    <t>Hoyer Lift</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Hoyer Lift"]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.updateAdmission('update', 'dmeForm' )"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.dme.available.other"]</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@value="YES"])[3]</t>
+  </si>
+  <si>
+    <t>Edit Wound Care</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.openAdmissionSidebar('wound-sidenav')"]</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Pressure"]</t>
+  </si>
+  <si>
+    <t>Stasis</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Stasis"]</t>
+  </si>
+  <si>
+    <t>Arterial</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Arterial"]</t>
+  </si>
+  <si>
+    <t>Neuropathic</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Neuropathic"]</t>
+  </si>
+  <si>
+    <t>Surgical</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Surgical"]</t>
+  </si>
+  <si>
+    <t>Trauma</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Trauma"]</t>
+  </si>
+  <si>
+    <t>Diabetic</t>
+  </si>
+  <si>
+    <t>Unspecified Wound</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Unspecified Wound"]</t>
+  </si>
+  <si>
+    <t>Wound Care Orders In</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.wound.woundCareOrdersIn"]</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Refer to WOCN</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.wound.referToWOCNorWCC"]</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Wound Vac Company</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.wound.woundVACCompany"]</t>
+  </si>
+  <si>
+    <t>Genedine</t>
+  </si>
+  <si>
+    <t>Wound Description</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.wound.woundDescription"]</t>
+  </si>
+  <si>
+    <t>test Description</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Diabetic"]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.updateAdmission('update', 'woundcareForm' )"]</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@value="YES"])[4]</t>
+  </si>
+  <si>
+    <t>Edit Foly Catheter</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.openAdmissionSidebar('foleyCatheter-sidenav')"]</t>
+  </si>
+  <si>
+    <t>Change Date</t>
+  </si>
+  <si>
+    <t>//md-datepicker[@ng-model="vm.charts.foleyCatheter.lastChange"]/div[1]/input</t>
+  </si>
+  <si>
+    <t>05-10-2017</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.foleyCatheter.size"]</t>
+  </si>
+  <si>
+    <t>15fn</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.foleyCatheter.frequency"]</t>
+  </si>
+  <si>
+    <t>twice a day</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.updateAdmission('update', 'foleyCatheterForm' )"]</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@value="YES"])[5]</t>
+  </si>
+  <si>
+    <t>Edit Iv</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.openAdmissionSidebar('ivinfusion-sidenav')"]</t>
+  </si>
+  <si>
+    <t>Last Dose</t>
+  </si>
+  <si>
+    <t>Med ord 1</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.ivInfusion.medications[0].medication"]</t>
+  </si>
+  <si>
+    <t>Test Med order</t>
+  </si>
+  <si>
+    <t>Freq and dur 1</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.ivInfusion.medications[0].frequencyAndDuration"]</t>
+  </si>
+  <si>
+    <t>Test Freq Dur 1</t>
+  </si>
+  <si>
+    <t>05-01-2017</t>
+  </si>
+  <si>
+    <t>Medic order 2</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.ivInfusion.medications[1].medication"]</t>
+  </si>
+  <si>
+    <t>Test Med Order 2</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.ivInfusion.medications[1].frequencyAndDuration"]</t>
+  </si>
+  <si>
+    <t>Test Freq Dur med 2</t>
+  </si>
+  <si>
+    <t>PICC Line</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="PICC Line"]</t>
+  </si>
+  <si>
+    <t>Mid Line</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Mid Line"]</t>
+  </si>
+  <si>
+    <t>Extra Jugular</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Extra Jugular"]</t>
+  </si>
+  <si>
+    <t>Intra Jugular</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Intra Jugular"]</t>
+  </si>
+  <si>
+    <t>Subclavian Line</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Subclavian Line"]</t>
+  </si>
+  <si>
+    <t>Peripheral Line</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Peripheral Line"]</t>
+  </si>
+  <si>
+    <t>X-Ray Confirmation</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="X-Ray Confirmation"]</t>
+  </si>
+  <si>
+    <t>Fluroscopy Report</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Fluroscopy Report"]</t>
+  </si>
+  <si>
+    <t>Line Insertion Information</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Line Insertion Information"]</t>
+  </si>
+  <si>
+    <t>Gravity</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Gravity"]</t>
+  </si>
+  <si>
+    <t>Dial Flow</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Dial Flow"]</t>
+  </si>
+  <si>
+    <t>Elastomeric Bulb</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Elastomeric Bulb"]</t>
+  </si>
+  <si>
+    <t>IV Pump</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="IV Pump"]</t>
+  </si>
+  <si>
+    <t>IV Push</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="IV Push"]</t>
+  </si>
+  <si>
+    <t>Infusion Pharmacy</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.ivInfusion.infusionPharmacy"]</t>
+  </si>
+  <si>
+    <t>Crit Care</t>
+  </si>
+  <si>
+    <t>Delivery of Supp Info</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.ivInfusion.deliveryOfSupplyInformaiton"]</t>
+  </si>
+  <si>
+    <t>Test Dev Sup Info</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.updateAdmission('update', 'ivInfusionForm' )"]</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.preAuth.RN"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OT </t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.preAuth.OT"]</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.preAuth.ST"]</t>
+  </si>
+  <si>
+    <t>MSW</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.preAuth.MSW"]</t>
+  </si>
+  <si>
+    <t>CHHA</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.preAuth.CHHA"]</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.preAuth.RD"]</t>
+  </si>
+  <si>
+    <t>//md-datepicker[@ng-model="vm.charts.ivInfusion.medications[0].lastDoes"]/div[1]/input</t>
+  </si>
+  <si>
+    <t>//md-datepicker[@ng-model="vm.charts.ivInfusion.medications[1].lastDoes"]/div[1]/input</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@value="YES"])[6]</t>
+  </si>
+  <si>
+    <t>Edit Enternal Feeding</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.openAdmissionSidebar('enteralfeeding-sidenav')"]</t>
+  </si>
+  <si>
+    <t>Tube Type</t>
+  </si>
+  <si>
+    <t>//md-radio-button[@aria-label="NG Tube"]</t>
+  </si>
+  <si>
+    <t>Formula Change</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.tubeFeeding.formula.value"]</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.tubeFeeding.formula.detail"]</t>
+  </si>
+  <si>
+    <t>Test Details</t>
+  </si>
+  <si>
+    <t>Bolus</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.tubeFeeding.bolus.value"]</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.tubeFeeding.bolus.cc"]</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.tubeFeeding.bolus.duration"]</t>
+  </si>
+  <si>
+    <t>Continous</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.tubeFeeding.continuous.value"]</t>
+  </si>
+  <si>
+    <t>cc/hours</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.tubeFeeding.continuous.cc"]</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.tubeFeeding.continuous.type"]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.updateAdmission('update', 'tubeFeedingForm' )"]</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@value="YES"])[7]</t>
+  </si>
+  <si>
+    <t>Edit Trach</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.openAdmissionSidebar('tracheostomy-sidenav')"]</t>
+  </si>
+  <si>
+    <t>Date of Trach</t>
+  </si>
+  <si>
+    <t>//md-datepicker[@ng-model="vm.charts.tracheostomy.date"]/div[1]/input</t>
+  </si>
+  <si>
+    <t>05-05-2017</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.tracheostomy.size"]</t>
+  </si>
+  <si>
+    <t>12in</t>
+  </si>
+  <si>
+    <t>DME and Sup com Name</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.tracheostomy.dmeAndSupplyCompanyName"]</t>
+  </si>
+  <si>
+    <t>Test Sup Com Name</t>
+  </si>
+  <si>
+    <t>DME Con Person</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.tracheostomy.dmeContactPerson"]</t>
+  </si>
+  <si>
+    <t>test Dme Contact Person</t>
+  </si>
+  <si>
+    <t>Supplies DME Con Num</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.tracheostomy.suppliesDMEContactNumber"]</t>
+  </si>
+  <si>
+    <t>097568974553</t>
+  </si>
+  <si>
+    <t>Billing Clearance</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.tracheostomy.billingClearanceCompleted"]</t>
+  </si>
+  <si>
+    <t>Oxygen Concentrator</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Oxygen Concentrator"]</t>
+  </si>
+  <si>
+    <t>Oxygen Tank</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Oxygen Tank"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Trach Humidifier"]</t>
+  </si>
+  <si>
+    <t>Trach Humidifier</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Trach Collar"]</t>
+  </si>
+  <si>
+    <t>Trach Collar</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Corrugated Tubing"]</t>
+  </si>
+  <si>
+    <t>Corrugated Tubing</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Distilled Water"]</t>
+  </si>
+  <si>
+    <t>Distilled Water</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Condensation Drain"]</t>
+  </si>
+  <si>
+    <t>Condensation Drain</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Trach Dressing Kits"]</t>
+  </si>
+  <si>
+    <t>Trach Dressing kits</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Drain Sponges"]</t>
+  </si>
+  <si>
+    <t>Drain Sponges</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Hydrogen Peroxide"]</t>
+  </si>
+  <si>
+    <t>Hydrogen Peroxide</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Normal Saline"]</t>
+  </si>
+  <si>
+    <t>Normal Saline</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Suction Machine"]</t>
+  </si>
+  <si>
+    <t>Suction Machine</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Inline Suction"]</t>
+  </si>
+  <si>
+    <t>Inline Suction</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="Suction Tip Kit"]</t>
+  </si>
+  <si>
+    <t>Suction Tip Kit</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.updateAdmission('update', 'TRACHEOSTOMYForm' )"]</t>
+  </si>
+  <si>
     <t>test7</t>
   </si>
   <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>Admission</t>
-  </si>
-  <si>
-    <t>search button</t>
-  </si>
-  <si>
-    <t>search bar</t>
-  </si>
-  <si>
-    <t>select first patient</t>
-  </si>
-  <si>
-    <t>che</t>
-  </si>
-  <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/form/div[1]/md-card[2]/md-card-actions/button</t>
-  </si>
-  <si>
-    <t>Basic Information</t>
-  </si>
-  <si>
-    <t>Contact Info</t>
-  </si>
-  <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-sidenav[2]/md-content/button</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>206 Dame DR</t>
-  </si>
-  <si>
-    <t>San Bruno</t>
-  </si>
-  <si>
-    <t>Santa Clara County</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>95032</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
     <t>lastname</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>//md-datepicker[@ng-model="vm.event.referralDate"]/div[1]/input</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.patientInfo.address.address"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.patientInfo.address.city"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.patientInfo.address.county"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.patientInfo.address.state"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.patientInfo.address.zipcode"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.admission.admissionTransferStatus"]</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[1]</t>
-  </si>
-  <si>
-    <t>//md-virtual-repeat-container[@class="md-autocomplete-suggestions-container md-whiteframe-z1 md-virtual-repeat-container md-orient-vertical md-cs-content-theme-theme"]/div/div[2]/ul/li[1]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.admission.patientDischargeStatus"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.admission.specialProgram"]</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[2]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.event.primaryPhysicianVerified"]</t>
-  </si>
-  <si>
-    <t>//input[@aria-label="Primary Insurance"]</t>
-  </si>
-  <si>
-    <t>//input[@aria-label="Primary Physician"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.event.policyNumber"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.event.insuranceVerified"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.admission.authCode"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.event.preAuth.PT"]</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[3]</t>
-  </si>
-  <si>
-    <t>Updating</t>
-  </si>
-  <si>
-    <t>//div[@class="pg-loading-screen pg-loading pg-loaded"]/div/div/div[@class="pg-loading-center-middle"]</t>
-  </si>
-  <si>
-    <t>visible</t>
-  </si>
-  <si>
-    <t>//md-toast/div/span</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/md-content/div/section/div[10]/button</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/md-content/div/section/div[1]/button</t>
-  </si>
-  <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[2]/md-expansion-panel-expanded/md-expansion-panel-content/div[1]/md-card[1]/md-card-actions/button</t>
-  </si>
-  <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[2]/md-expansion-panel-expanded/md-expansion-panel-content/div[1]/md-card[2]/md-card-actions/button</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/md-content/md-content[3]/md-content/div/div/div/div[1]/button[1]</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/md-content/md-content[3]/md-content/div/div/div/div[2]/form/input</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/md-content/md-content[3]/md-content/md-list/md-list-item/div/div[1]/button</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/md-content/md-content[3]/md-content/md-list/md-list-item/div/button</t>
-  </si>
-  <si>
-    <t>close background</t>
-  </si>
-  <si>
-    <t>Special Order</t>
-  </si>
-  <si>
-    <t>(//md-radio-button[@value="NO"])[2]</t>
-  </si>
-  <si>
-    <t>(//md-radio-button[@value="NO"])[1]</t>
-  </si>
-  <si>
-    <t>(//md-radio-button[@value="NO"])[3]</t>
-  </si>
-  <si>
-    <t>(//md-radio-button[@value="NO"])[4]</t>
-  </si>
-  <si>
-    <t>(//md-radio-button[@value="NO"])[5]</t>
-  </si>
-  <si>
-    <t>(//md-radio-button[@value="NO"])[6]</t>
-  </si>
-  <si>
-    <t>(//md-radio-button[@value="NO"])[7]</t>
-  </si>
-  <si>
-    <t>Lab Draw</t>
-  </si>
-  <si>
-    <t>DME</t>
-  </si>
-  <si>
-    <t>Wound Care</t>
-  </si>
-  <si>
-    <t>Foley Catheter</t>
-  </si>
-  <si>
-    <t>Iv Infusion</t>
-  </si>
-  <si>
-    <t>Enteral Feeding</t>
-  </si>
-  <si>
-    <t>Tracheostomy</t>
-  </si>
-  <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[4]</t>
-  </si>
-  <si>
     <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-actions/button</t>
   </si>
   <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-actions/div/button[2]</t>
+    <t>IntakeNote</t>
+  </si>
+  <si>
+    <t>Edit Intake Note</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.openAdmissionSidebar('intakeinfo-sidenav')"]</t>
+  </si>
+  <si>
+    <t>Intake Notes</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.admission.intakeNotes"]</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.admission.miscellaneous"]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.updateAdmission('update','intakeForm')"]</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[5]/md-expansion-panel-collapsed/md-icon</t>
+  </si>
+  <si>
+    <t>Face tO face</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[6]/md-expansion-panel-collapsed/md-icon</t>
+  </si>
+  <si>
+    <t>Face to Face Edit</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.openAdmissionSidebar('checklistinfo-sidenav')"]</t>
+  </si>
+  <si>
+    <t>Face 2 face sent to MD</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.checklist.faceToFaceSentToMD"]</t>
+  </si>
+  <si>
+    <t>Faxed Md Office</t>
+  </si>
+  <si>
+    <t>Date Sent Md</t>
+  </si>
+  <si>
+    <t>//md-datepicker[@ng-model="vm.checklist.dateFaceToFaceSentToMD"]/div[1]/input</t>
+  </si>
+  <si>
+    <t>f2f admit processing</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.checklist.faceToFaceStatus"]</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>Appointment set pcp</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.checklist.appointmentSetwithPCP"]</t>
+  </si>
+  <si>
+    <t>Need New PCP</t>
+  </si>
+  <si>
+    <t>PCp Appointment Date</t>
+  </si>
+  <si>
+    <t>//md-datepicker[@ng-model="vm.checklist.pcpAppointmentDate"]/div[1]/input</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.updateAdmissionCheckList()"]</t>
+  </si>
+  <si>
+    <t>Test Intake Note</t>
+  </si>
+  <si>
+    <t>Test Miscellaneous</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +1364,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -462,7 +1394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -473,6 +1405,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -806,15 +1747,15 @@
         <v>9</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -831,70 +1772,70 @@
     </row>
     <row r="3" spans="1:8" ht="30">
       <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30">
+      <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30">
+      <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>59</v>
+      <c r="D5" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -909,12 +1850,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="45">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -931,16 +1872,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -948,16 +1889,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -965,16 +1906,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -982,16 +1923,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -999,16 +1940,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -1016,19 +1957,16 @@
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -1036,61 +1974,61 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="60">
+    <row r="17" spans="1:8" ht="30">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1105,81 +2043,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="75">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45">
+      <c r="A20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="45">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
+      <c r="D21" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -1187,10 +2113,10 @@
     </row>
     <row r="22" spans="1:8" ht="30">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1207,10 +2133,10 @@
     </row>
     <row r="23" spans="1:8" ht="45">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1227,30 +2153,27 @@
     </row>
     <row r="24" spans="1:8" ht="30">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="45">
+    <row r="25" spans="1:8" ht="30">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1265,12 +2188,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="45">
+    <row r="26" spans="1:8" ht="30">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1279,18 +2202,18 @@
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="30">
       <c r="A27" s="1" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1305,12 +2228,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30">
+    <row r="28" spans="1:8" ht="60">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1325,43 +2248,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="75">
       <c r="A29" s="1" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="60">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30">
       <c r="A30" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="75">
+      <c r="H30" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
@@ -1370,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -1378,16 +2310,13 @@
     </row>
     <row r="32" spans="1:8" ht="45">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1398,22 +2327,16 @@
       <c r="G32" s="1">
         <v>1</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:7" ht="30">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1425,12 +2348,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="60">
+    <row r="34" spans="1:7" ht="45">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
@@ -1445,35 +2368,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="3" t="s">
-        <v>38</v>
+    <row r="35" spans="1:7" ht="30">
+      <c r="A35" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45">
+      <c r="A36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
@@ -1490,7 +2410,7 @@
     </row>
     <row r="37" spans="1:7" ht="45">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>91</v>
@@ -1508,18 +2428,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="3" t="s">
-        <v>40</v>
+    <row r="38" spans="1:7" ht="45">
+      <c r="A38" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1531,126 +2448,132 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30">
+    <row r="39" spans="1:7" ht="45">
       <c r="A39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45">
+      <c r="A40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45">
+      <c r="A41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="45">
+      <c r="A42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="45">
+      <c r="A43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30">
+      <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="75">
-      <c r="A41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="60">
-      <c r="A43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="30">
-      <c r="A44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="45">
-      <c r="A45" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B45" s="1" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>5</v>
@@ -1665,43 +2588,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="60">
       <c r="A47" s="1" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>106</v>
+        <v>5</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="75">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
@@ -1716,18 +2639,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" ht="45">
       <c r="A49" s="1" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -1738,133 +2661,145 @@
       <c r="G49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="30">
+      <c r="H49" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="60">
+      <c r="A51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="45">
+      <c r="A54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30">
+      <c r="A56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1</v>
-      </c>
-      <c r="F55" s="1">
-        <v>1</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="B56" s="1" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
@@ -1876,35 +2811,26 @@
         <v>1</v>
       </c>
       <c r="G56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="75">
       <c r="A58" s="1" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
@@ -1916,18 +2842,21 @@
         <v>1</v>
       </c>
       <c r="G58" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -1939,12 +2868,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="45">
+    <row r="60" spans="1:8" ht="60">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>5</v>
@@ -1959,12 +2888,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" ht="30">
       <c r="A61" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
@@ -1979,15 +2908,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" ht="45">
       <c r="A62" s="1" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -1997,17 +2926,14 @@
       </c>
       <c r="G62" s="1">
         <v>1</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="30">
       <c r="A63" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>5</v>
@@ -2016,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="1">
         <v>1</v>
@@ -2024,44 +2950,2484 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="75">
+      <c r="A65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30">
+      <c r="A73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="45">
+      <c r="A74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30">
+      <c r="A76" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="30">
+      <c r="A88" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="30">
+      <c r="A89" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="30">
+      <c r="A91" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="30">
+      <c r="A108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="30">
+      <c r="A110" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="30">
+      <c r="A119" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1</v>
+      </c>
+      <c r="G119" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="45">
+      <c r="A120" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="30">
+      <c r="A121" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="45">
+      <c r="A122" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1</v>
+      </c>
+      <c r="G122" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="30">
+      <c r="A123" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1</v>
+      </c>
+      <c r="G123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="45">
+      <c r="A124" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1</v>
+      </c>
+      <c r="G124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="30">
+      <c r="A125" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="30">
+      <c r="A126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1</v>
+      </c>
+      <c r="G126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="45">
+      <c r="A128" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
+      <c r="F128" s="1">
+        <v>1</v>
+      </c>
+      <c r="G128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="45">
+      <c r="A129" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="30">
+      <c r="A131" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="30">
+      <c r="A132" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1</v>
+      </c>
+      <c r="F132" s="1">
+        <v>1</v>
+      </c>
+      <c r="G132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+      <c r="F133" s="1">
+        <v>1</v>
+      </c>
+      <c r="G133" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="30">
+      <c r="A134" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F134" s="1">
+        <v>1</v>
+      </c>
+      <c r="G134" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="45">
+      <c r="A135" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="45">
+      <c r="A136" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="45">
+      <c r="A137" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="45">
+      <c r="A138" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="45">
+      <c r="A139" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="45">
+      <c r="A140" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="30">
+      <c r="A149" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="30">
+      <c r="A155" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155" s="1">
+        <v>1</v>
+      </c>
+      <c r="F155" s="1">
+        <v>1</v>
+      </c>
+      <c r="G155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="45">
+      <c r="A156" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1</v>
+      </c>
+      <c r="G156" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="45">
+      <c r="A157" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G157" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="30">
+      <c r="A158" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" s="1">
+        <v>1</v>
+      </c>
+      <c r="F158" s="1">
+        <v>1</v>
+      </c>
+      <c r="G158" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159" s="1">
+        <v>1</v>
+      </c>
+      <c r="F159" s="1">
+        <v>1</v>
+      </c>
+      <c r="G159" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1</v>
+      </c>
+      <c r="F160" s="1">
+        <v>1</v>
+      </c>
+      <c r="G160" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="6" customFormat="1">
+      <c r="A161" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161" s="7"/>
+      <c r="E161" s="6">
+        <v>1</v>
+      </c>
+      <c r="F161" s="6">
+        <v>1</v>
+      </c>
+      <c r="G161" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="6" customFormat="1" ht="30">
+      <c r="A162" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D162" s="7"/>
+    </row>
+    <row r="163" spans="1:7" s="6" customFormat="1" ht="30">
+      <c r="A163" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G163" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" s="6" customFormat="1" ht="30">
+      <c r="A164" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D164" s="2"/>
+    </row>
+    <row r="165" spans="1:7" s="6" customFormat="1">
+      <c r="A165" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G165" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="6" customFormat="1" ht="30">
+      <c r="A166" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G166" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" s="6" customFormat="1" ht="30">
+      <c r="A167" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="1:7" s="6" customFormat="1" ht="30">
+      <c r="A168" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G168" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" s="6" customFormat="1" ht="30">
+      <c r="A169" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" s="6">
+        <v>1</v>
+      </c>
+      <c r="F169" s="6">
+        <v>1</v>
+      </c>
+      <c r="G169" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" s="6" customFormat="1" ht="45">
+      <c r="A170" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" s="6">
+        <v>1</v>
+      </c>
+      <c r="F170" s="6">
+        <v>1</v>
+      </c>
+      <c r="G170" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" s="6" customFormat="1" ht="30">
+      <c r="A171" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" s="2"/>
+      <c r="E171" s="6">
+        <v>1</v>
+      </c>
+      <c r="F171" s="6">
+        <v>1</v>
+      </c>
+      <c r="G171" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1</v>
+      </c>
+      <c r="F172" s="1">
+        <v>1</v>
+      </c>
+      <c r="G172" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="45">
+      <c r="A173" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E173" s="1">
+        <v>1</v>
+      </c>
+      <c r="F173" s="1">
+        <v>1</v>
+      </c>
+      <c r="G173" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="30">
+      <c r="A174" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G174" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G175" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="45">
+      <c r="A176" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G176" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="30">
+      <c r="A177" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G177" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="45">
+      <c r="A178" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G178" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="45">
+      <c r="A179" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" s="1">
+        <v>1</v>
+      </c>
+      <c r="F179" s="1">
+        <v>1</v>
+      </c>
+      <c r="G179" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="45">
+      <c r="A180" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" s="1">
+        <v>1</v>
+      </c>
+      <c r="F180" s="1">
+        <v>1</v>
+      </c>
+      <c r="G180" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="30">
+      <c r="A195" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E195" s="1">
+        <v>1</v>
+      </c>
+      <c r="F195" s="1">
+        <v>1</v>
+      </c>
+      <c r="G195" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="60">
+      <c r="A196" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E196" s="1">
+        <v>1</v>
+      </c>
+      <c r="F196" s="1">
+        <v>1</v>
+      </c>
+      <c r="G196" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="30">
+      <c r="A197" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E197" s="1">
+        <v>1</v>
+      </c>
+      <c r="F197" s="1">
+        <v>1</v>
+      </c>
+      <c r="G197" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G198" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G199" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="30">
+      <c r="A200" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E200" s="1">
+        <v>1</v>
+      </c>
+      <c r="F200" s="1">
+        <v>1</v>
+      </c>
+      <c r="G200" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="60">
+      <c r="A201" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201" s="1">
+        <v>1</v>
+      </c>
+      <c r="F201" s="1">
+        <v>1</v>
+      </c>
+      <c r="G201" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="45">
+      <c r="A202" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E202" s="1">
+        <v>1</v>
+      </c>
+      <c r="F202" s="1">
+        <v>1</v>
+      </c>
+      <c r="G202" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="30">
+      <c r="A203" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E203" s="1">
+        <v>1</v>
+      </c>
+      <c r="F203" s="1">
+        <v>1</v>
+      </c>
+      <c r="G203" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="45">
+      <c r="A204" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E204" s="1">
+        <v>1</v>
+      </c>
+      <c r="F204" s="1">
+        <v>1</v>
+      </c>
+      <c r="G204" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="45">
+      <c r="A205" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G205" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="30">
+      <c r="A206" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E206" s="1">
+        <v>1</v>
+      </c>
+      <c r="F206" s="1">
+        <v>1</v>
+      </c>
+      <c r="G206" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="45">
+      <c r="A207" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E207" s="1">
+        <v>1</v>
+      </c>
+      <c r="F207" s="1">
+        <v>1</v>
+      </c>
+      <c r="G207" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="30">
+      <c r="A208" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E208" s="1">
+        <v>1</v>
+      </c>
+      <c r="F208" s="1">
+        <v>1</v>
+      </c>
+      <c r="G208" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="45">
+      <c r="A209" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E209" s="1">
+        <v>1</v>
+      </c>
+      <c r="F209" s="1">
+        <v>1</v>
+      </c>
+      <c r="G209" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="45">
+      <c r="A210" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G210" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E211" s="1">
+        <v>1</v>
+      </c>
+      <c r="F211" s="1">
+        <v>1</v>
+      </c>
+      <c r="G211" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="30">
+      <c r="A212" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E212" s="1">
+        <v>1</v>
+      </c>
+      <c r="F212" s="1">
+        <v>1</v>
+      </c>
+      <c r="G212" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="45">
+      <c r="A213" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E213" s="1">
+        <v>1</v>
+      </c>
+      <c r="F213" s="1">
+        <v>1</v>
+      </c>
+      <c r="G213" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E214" s="1">
+        <v>1</v>
+      </c>
+      <c r="F214" s="1">
+        <v>1</v>
+      </c>
+      <c r="G214" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="30">
+      <c r="A215" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G215" s="1">
+        <v>1</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="30">
+      <c r="A216" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E216" s="1">
+        <v>1</v>
+      </c>
+      <c r="F216" s="1">
+        <v>2</v>
+      </c>
+      <c r="G216" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="45">
+      <c r="A217" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="1">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="45">
-      <c r="A65" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>106</v>
+      <c r="B217" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E217" s="1">
+        <v>1</v>
+      </c>
+      <c r="F217" s="1">
+        <v>1</v>
+      </c>
+      <c r="G217" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="45">
+      <c r="A218" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="45">
+      <c r="A220" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E220" s="1">
+        <v>1</v>
+      </c>
+      <c r="F220" s="1">
+        <v>1</v>
+      </c>
+      <c r="G220" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E221" s="1">
+        <v>1</v>
+      </c>
+      <c r="F221" s="1">
+        <v>1</v>
+      </c>
+      <c r="G221" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="30">
+      <c r="A222" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G222" s="1">
+        <v>1</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/resources/admissionForNewPatient.xlsx
+++ b/resources/admissionForNewPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="479">
   <si>
     <t>Xpath</t>
   </si>
@@ -1345,6 +1345,114 @@
   </si>
   <si>
     <t>Test Miscellaneous</t>
+  </si>
+  <si>
+    <t>Basic Info*</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.openPatientSidebar('patientbasic-sidenav')"]</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.patientInfo.weight"]</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.patientInfo.height"]</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>Mobilenum</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.editCaregiver.mobileNumber"]</t>
+  </si>
+  <si>
+    <t>09785841236</t>
+  </si>
+  <si>
+    <t>Work Num</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.editCaregiver.workNumber"]</t>
+  </si>
+  <si>
+    <t>09587412654</t>
+  </si>
+  <si>
+    <t>2nd Caregiver Info Edit</t>
+  </si>
+  <si>
+    <t>Sanji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relationship </t>
+  </si>
+  <si>
+    <t>Next of kin</t>
+  </si>
+  <si>
+    <t>phone Num</t>
+  </si>
+  <si>
+    <t>3rd caregiver info</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/form/div[3]/md-card[3]/md-card-actions/button</t>
+  </si>
+  <si>
+    <t>Roronoa Zoro</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.event.editCaregiver.relationship"]</t>
+  </si>
+  <si>
+    <t>Conservator</t>
+  </si>
+  <si>
+    <t>Phone Num</t>
+  </si>
+  <si>
+    <t>Moblie Num</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/form/div[3]/md-card[2]/md-card-actions/button</t>
+  </si>
+  <si>
+    <t>2nd Physician</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.openAdmissionSidebar('secondaryphysicianinfo-sidenav')"]</t>
+  </si>
+  <si>
+    <t>Second Physician</t>
+  </si>
+  <si>
+    <t>//input[@aria-label="Secondary Physician"]</t>
+  </si>
+  <si>
+    <t>Select 2ndary Physician</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.event.secondaryPhysicianVerified"]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.updateAdmission('update', 'secondaryPhysicianForm' )"]</t>
+  </si>
+  <si>
+    <t>ero</t>
   </si>
 </sst>
 </file>
@@ -1709,10 +1817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H222"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -1850,12 +1959,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45">
+    <row r="7" spans="1:8" ht="30">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>443</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>444</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1872,16 +1981,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>445</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>446</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>447</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1889,50 +1998,56 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>448</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>449</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>450</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="30">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="45">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1940,33 +2055,33 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -1974,33 +2089,33 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" t="s">
-        <v>128</v>
+        <v>70</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -2008,293 +2123,275 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30">
+      <c r="A17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30">
+      <c r="A19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30">
-      <c r="A17" s="1" t="s">
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30">
+      <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="45">
-      <c r="A20" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45">
+      <c r="A24" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30">
-      <c r="A22" s="1" t="s">
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30">
+      <c r="A26" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="45">
-      <c r="A23" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45">
+      <c r="A27" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30">
-      <c r="A24" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30">
+      <c r="A28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30">
-      <c r="A25" s="1" t="s">
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30">
+      <c r="A29" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30">
+      <c r="A30" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30">
+      <c r="A31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30">
-      <c r="A26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30">
-      <c r="A27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="60">
-      <c r="A28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="75">
-      <c r="A29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30">
-      <c r="A30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30">
-      <c r="A31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
@@ -2308,12 +2405,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="45">
+    <row r="32" spans="1:7" ht="45">
       <c r="A32" s="1" t="s">
-        <v>16</v>
+        <v>457</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>87</v>
+        <v>470</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -2328,32 +2425,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45">
+    <row r="34" spans="1:7" ht="30">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>459</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>87</v>
+        <v>466</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
@@ -2368,12 +2462,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30">
+    <row r="35" spans="1:7" ht="45">
       <c r="A35" s="1" t="s">
-        <v>19</v>
+        <v>460</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
@@ -2388,72 +2482,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45">
+    <row r="36" spans="1:7" ht="30">
       <c r="A36" s="1" t="s">
-        <v>20</v>
+        <v>461</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="45">
+    <row r="37" spans="1:7" ht="30">
       <c r="A37" s="1" t="s">
-        <v>20</v>
+        <v>451</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>91</v>
+        <v>452</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="45">
+    <row r="38" spans="1:7" ht="30">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>454</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>155</v>
+        <v>455</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="45">
+    <row r="39" spans="1:7" ht="30">
       <c r="A39" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
@@ -2470,10 +2555,10 @@
     </row>
     <row r="40" spans="1:7" ht="45">
       <c r="A40" s="1" t="s">
-        <v>20</v>
+        <v>462</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>157</v>
+        <v>463</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>5</v>
@@ -2488,32 +2573,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="45">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="45">
+    <row r="42" spans="1:7" ht="30">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>465</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>5</v>
@@ -2530,10 +2612,10 @@
     </row>
     <row r="43" spans="1:7" ht="45">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>467</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
@@ -2548,21 +2630,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="30">
       <c r="A44" s="1" t="s">
-        <v>108</v>
+        <v>468</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -2570,41 +2649,44 @@
     </row>
     <row r="45" spans="1:7" ht="30">
       <c r="A45" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30">
+      <c r="A46" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30">
+      <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="60">
-      <c r="A47" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
@@ -2619,12 +2701,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="75">
+    <row r="48" spans="1:7" ht="30">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
@@ -2639,104 +2721,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="45">
+    <row r="49" spans="1:8" ht="30">
       <c r="A49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="60">
+      <c r="A50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="75">
+      <c r="A51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30">
+      <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1</v>
-      </c>
-      <c r="H49" s="1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="60">
-      <c r="A51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="3" t="s">
-        <v>39</v>
+    <row r="53" spans="1:8" ht="30">
+      <c r="A53" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
@@ -2753,7 +2823,7 @@
     </row>
     <row r="54" spans="1:8" ht="45">
       <c r="A54" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>87</v>
@@ -2771,18 +2841,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="3" t="s">
-        <v>40</v>
+    <row r="55" spans="1:8" ht="30">
+      <c r="A55" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -2794,12 +2861,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30">
+    <row r="56" spans="1:8" ht="45">
       <c r="A56" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
@@ -2814,23 +2881,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" ht="30">
       <c r="A57" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="75">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="45">
       <c r="A58" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
@@ -2845,18 +2921,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" ht="45">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -2868,12 +2941,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="60">
+    <row r="60" spans="1:8" ht="45">
       <c r="A60" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>5</v>
@@ -2888,12 +2961,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="30">
+    <row r="61" spans="1:8" ht="45">
       <c r="A61" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
@@ -2910,413 +2983,542 @@
     </row>
     <row r="62" spans="1:8" ht="45">
       <c r="A62" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="45">
+      <c r="A63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="45">
+      <c r="A64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="45">
+      <c r="A65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30">
+      <c r="A67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="60">
+      <c r="A69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="75">
+      <c r="A70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="45">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="60">
+      <c r="A73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="45">
+      <c r="A76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1">
-        <v>1</v>
-      </c>
-      <c r="G62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="30">
-      <c r="A63" s="1" t="s">
+      <c r="C76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="30">
+      <c r="A78" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1</v>
-      </c>
-      <c r="G63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="1" t="s">
+      <c r="B78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="75">
-      <c r="A65" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1">
-        <v>2</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G72" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="30">
-      <c r="A73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="1">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1">
-        <v>1</v>
-      </c>
-      <c r="G73" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="45">
-      <c r="A74" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74" s="1">
-        <v>1</v>
-      </c>
-      <c r="F74" s="1">
-        <v>1</v>
-      </c>
-      <c r="G74" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" s="1">
-        <v>1</v>
-      </c>
-      <c r="F75" s="1">
-        <v>1</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="30">
-      <c r="A76" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="1">
-        <v>1</v>
-      </c>
-      <c r="F76" s="1">
-        <v>1</v>
-      </c>
-      <c r="G76" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8" ht="75">
       <c r="A80" s="1" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>138</v>
+        <v>5</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+      <c r="G81" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="60">
       <c r="A82" s="1" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="30">
       <c r="A83" s="1" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="45">
       <c r="A84" s="1" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="30">
       <c r="A85" s="1" t="s">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="45">
       <c r="A86" s="1" t="s">
-        <v>184</v>
+        <v>471</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>190</v>
+        <v>472</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>138</v>
+        <v>5</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>192</v>
+        <v>473</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>191</v>
+        <v>474</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="30">
+        <v>7</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="60">
       <c r="A88" s="1" t="s">
-        <v>185</v>
+        <v>475</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>187</v>
+        <v>5</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
       </c>
       <c r="G88" s="1">
         <v>1</v>
@@ -3324,10 +3526,10 @@
     </row>
     <row r="89" spans="1:7" ht="30">
       <c r="A89" s="1" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>189</v>
+        <v>476</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>5</v>
@@ -3342,12 +3544,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="5" t="s">
-        <v>111</v>
+    <row r="90" spans="1:7" ht="45">
+      <c r="A90" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>193</v>
+        <v>87</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>5</v>
@@ -3359,15 +3561,15 @@
         <v>1</v>
       </c>
       <c r="G90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="30">
       <c r="A91" s="1" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>195</v>
+        <v>477</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>5</v>
@@ -3384,153 +3586,246 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="75">
       <c r="A93" s="1" t="s">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>138</v>
+        <v>5</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>2</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>138</v>
+        <v>7</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>202</v>
+        <v>325</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>203</v>
+        <v>326</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>138</v>
+        <v>7</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>204</v>
+        <v>327</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>205</v>
+        <v>328</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>138</v>
+        <v>7</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>206</v>
+        <v>329</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>138</v>
+        <v>7</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>208</v>
+        <v>331</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>209</v>
+        <v>332</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>138</v>
+        <v>7</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>210</v>
+        <v>333</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>211</v>
+        <v>334</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>138</v>
+        <v>7</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>212</v>
+        <v>335</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>213</v>
+        <v>336</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="30">
       <c r="A101" s="1" t="s">
-        <v>214</v>
+        <v>28</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="45">
       <c r="A102" s="1" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>138</v>
+        <v>5</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="1" t="s">
-        <v>218</v>
+      <c r="A103" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="30">
       <c r="A104" s="1" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>138</v>
+        <v>5</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>138</v>
@@ -3538,10 +3833,10 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>138</v>
@@ -3549,87 +3844,54 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G107" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E108" s="1">
-        <v>1</v>
-      </c>
-      <c r="F108" s="1">
-        <v>1</v>
-      </c>
-      <c r="G108" s="1">
-        <v>1</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="5" t="s">
-        <v>112</v>
+      <c r="A109" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" s="1">
-        <v>1</v>
-      </c>
-      <c r="F109" s="1">
-        <v>1</v>
-      </c>
-      <c r="G109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E110" s="1">
-        <v>1</v>
-      </c>
-      <c r="F110" s="1">
-        <v>1</v>
-      </c>
-      <c r="G110" s="1">
-        <v>1</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>138</v>
@@ -3637,10 +3899,10 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>138</v>
@@ -3648,10 +3910,10 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>138</v>
@@ -3659,10 +3921,10 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>138</v>
@@ -3670,54 +3932,78 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" ht="30">
       <c r="A116" s="1" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="30">
       <c r="A117" s="1" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>259</v>
+        <v>189</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>138</v>
+        <v>5</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1</v>
+      </c>
+      <c r="G117" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="1" t="s">
-        <v>245</v>
+      <c r="A118" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>138</v>
+        <v>5</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="30">
       <c r="A119" s="1" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>5</v>
@@ -3732,402 +4018,276 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="45">
+    <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E120" s="1">
-        <v>1</v>
-      </c>
-      <c r="F120" s="1">
-        <v>1</v>
-      </c>
-      <c r="G120" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E121" s="1">
-        <v>1</v>
-      </c>
-      <c r="F121" s="1">
-        <v>1</v>
-      </c>
-      <c r="G121" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E122" s="1">
-        <v>1</v>
-      </c>
-      <c r="F122" s="1">
-        <v>1</v>
-      </c>
-      <c r="G122" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E123" s="1">
-        <v>1</v>
-      </c>
-      <c r="F123" s="1">
-        <v>1</v>
-      </c>
-      <c r="G123" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E124" s="1">
-        <v>1</v>
-      </c>
-      <c r="F124" s="1">
-        <v>1</v>
-      </c>
-      <c r="G124" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G125" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E126" s="1">
-        <v>1</v>
-      </c>
-      <c r="F126" s="1">
-        <v>1</v>
-      </c>
-      <c r="G126" s="1">
-        <v>1</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="5" t="s">
-        <v>113</v>
+      <c r="A127" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E127" s="1">
-        <v>1</v>
-      </c>
-      <c r="F127" s="1">
-        <v>1</v>
-      </c>
-      <c r="G127" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E128" s="1">
-        <v>1</v>
-      </c>
-      <c r="F128" s="1">
-        <v>1</v>
-      </c>
-      <c r="G128" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G129" s="1">
-        <v>1</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G130" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="30">
+      <c r="A136" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132" s="1">
-        <v>1</v>
-      </c>
-      <c r="F132" s="1">
-        <v>1</v>
-      </c>
-      <c r="G132" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E133" s="1">
-        <v>1</v>
-      </c>
-      <c r="F133" s="1">
-        <v>1</v>
-      </c>
-      <c r="G133" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="30">
-      <c r="A134" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E134" s="1">
-        <v>1</v>
-      </c>
-      <c r="F134" s="1">
-        <v>1</v>
-      </c>
-      <c r="G134" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="45">
-      <c r="A135" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G135" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="45">
-      <c r="A136" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="B136" s="1" t="s">
-        <v>279</v>
+        <v>227</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>280</v>
+        <v>5</v>
+      </c>
+      <c r="E136" s="1">
+        <v>1</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1</v>
       </c>
       <c r="G136" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="45">
-      <c r="A137" s="1" t="s">
-        <v>281</v>
+    <row r="137" spans="1:7">
+      <c r="A137" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>283</v>
+        <v>5</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1</v>
+      </c>
+      <c r="F137" s="1">
+        <v>1</v>
       </c>
       <c r="G137" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="30">
       <c r="A138" s="1" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>338</v>
+        <v>231</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>284</v>
+        <v>5</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1</v>
       </c>
       <c r="G138" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="45">
+    <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G139" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G140" s="1">
-        <v>1</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>138</v>
@@ -4135,10 +4295,10 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>138</v>
@@ -4146,10 +4306,10 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>138</v>
@@ -4157,601 +4317,594 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="30">
+      <c r="A147" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+      <c r="F147" s="1">
+        <v>1</v>
+      </c>
+      <c r="G147" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="45">
+      <c r="A148" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1">
+        <v>1</v>
+      </c>
+      <c r="G148" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="30">
+      <c r="A149" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1</v>
+      </c>
+      <c r="F149" s="1">
+        <v>1</v>
+      </c>
+      <c r="G149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="45">
+      <c r="A150" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150" s="1">
+        <v>1</v>
+      </c>
+      <c r="F150" s="1">
+        <v>1</v>
+      </c>
+      <c r="G150" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="30">
+      <c r="A151" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151" s="1">
+        <v>1</v>
+      </c>
+      <c r="F151" s="1">
+        <v>1</v>
+      </c>
+      <c r="G151" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="45">
+      <c r="A152" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" s="1">
+        <v>1</v>
+      </c>
+      <c r="F152" s="1">
+        <v>1</v>
+      </c>
+      <c r="G152" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="30">
+      <c r="A153" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G153" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="30">
+      <c r="A154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154" s="1">
+        <v>1</v>
+      </c>
+      <c r="F154" s="1">
+        <v>1</v>
+      </c>
+      <c r="G154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155" s="1">
+        <v>1</v>
+      </c>
+      <c r="F155" s="1">
+        <v>1</v>
+      </c>
+      <c r="G155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="45">
+      <c r="A156" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1</v>
+      </c>
+      <c r="G156" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="45">
+      <c r="A157" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G157" s="1">
+        <v>1</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G158" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="30">
+      <c r="A159" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G159" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="30">
+      <c r="A160" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1</v>
+      </c>
+      <c r="F160" s="1">
+        <v>1</v>
+      </c>
+      <c r="G160" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" s="1">
+        <v>1</v>
+      </c>
+      <c r="F161" s="1">
+        <v>1</v>
+      </c>
+      <c r="G161" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="30">
+      <c r="A162" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162" s="1">
+        <v>1</v>
+      </c>
+      <c r="F162" s="1">
+        <v>1</v>
+      </c>
+      <c r="G162" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="45">
+      <c r="A163" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G163" s="1">
+        <v>1</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="45">
+      <c r="A164" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G164" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="45">
+      <c r="A165" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G165" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="45">
+      <c r="A166" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G166" s="1">
+        <v>1</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="45">
+      <c r="A167" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G167" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="45">
+      <c r="A168" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G168" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="1" t="s">
+      <c r="C172" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="1" t="s">
+      <c r="C173" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="1" t="s">
+      <c r="C174" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="1" t="s">
+      <c r="C175" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="30">
-      <c r="A149" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="30">
-      <c r="A155" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E155" s="1">
-        <v>1</v>
-      </c>
-      <c r="F155" s="1">
-        <v>1</v>
-      </c>
-      <c r="G155" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="45">
-      <c r="A156" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E156" s="1">
-        <v>1</v>
-      </c>
-      <c r="F156" s="1">
-        <v>1</v>
-      </c>
-      <c r="G156" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="45">
-      <c r="A157" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G157" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="30">
-      <c r="A158" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E158" s="1">
-        <v>1</v>
-      </c>
-      <c r="F158" s="1">
-        <v>1</v>
-      </c>
-      <c r="G158" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E159" s="1">
-        <v>1</v>
-      </c>
-      <c r="F159" s="1">
-        <v>1</v>
-      </c>
-      <c r="G159" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E160" s="1">
-        <v>1</v>
-      </c>
-      <c r="F160" s="1">
-        <v>1</v>
-      </c>
-      <c r="G160" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" s="6" customFormat="1">
-      <c r="A161" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D161" s="7"/>
-      <c r="E161" s="6">
-        <v>1</v>
-      </c>
-      <c r="F161" s="6">
-        <v>1</v>
-      </c>
-      <c r="G161" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" s="6" customFormat="1" ht="30">
-      <c r="A162" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D162" s="7"/>
-    </row>
-    <row r="163" spans="1:7" s="6" customFormat="1" ht="30">
-      <c r="A163" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="G163" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" s="6" customFormat="1" ht="30">
-      <c r="A164" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="1:7" s="6" customFormat="1">
-      <c r="A165" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G165" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" s="6" customFormat="1" ht="30">
-      <c r="A166" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G166" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" s="6" customFormat="1" ht="30">
-      <c r="A167" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D167" s="2"/>
-    </row>
-    <row r="168" spans="1:7" s="6" customFormat="1" ht="30">
-      <c r="A168" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G168" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" s="6" customFormat="1" ht="30">
-      <c r="A169" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D169" s="2"/>
-      <c r="E169" s="6">
-        <v>1</v>
-      </c>
-      <c r="F169" s="6">
-        <v>1</v>
-      </c>
-      <c r="G169" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" s="6" customFormat="1" ht="45">
-      <c r="A170" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D170" s="2"/>
-      <c r="E170" s="6">
-        <v>1</v>
-      </c>
-      <c r="F170" s="6">
-        <v>1</v>
-      </c>
-      <c r="G170" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" s="6" customFormat="1" ht="30">
-      <c r="A171" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D171" s="2"/>
-      <c r="E171" s="6">
-        <v>1</v>
-      </c>
-      <c r="F171" s="6">
-        <v>1</v>
-      </c>
-      <c r="G171" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E172" s="1">
-        <v>1</v>
-      </c>
-      <c r="F172" s="1">
-        <v>1</v>
-      </c>
-      <c r="G172" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="45">
-      <c r="A173" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E173" s="1">
-        <v>1</v>
-      </c>
-      <c r="F173" s="1">
-        <v>1</v>
-      </c>
-      <c r="G173" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="30">
-      <c r="A174" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G174" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G175" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="45">
-      <c r="A176" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="C176" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G176" s="1">
-        <v>1</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="30">
       <c r="A177" s="1" t="s">
-        <v>373</v>
+        <v>306</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>374</v>
+        <v>307</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G177" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" s="1" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>377</v>
+        <v>309</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G178" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" s="1" t="s">
-        <v>379</v>
+        <v>310</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>380</v>
+        <v>311</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E179" s="1">
-        <v>1</v>
-      </c>
-      <c r="F179" s="1">
-        <v>1</v>
-      </c>
-      <c r="G179" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="1" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E180" s="1">
-        <v>1</v>
-      </c>
-      <c r="F180" s="1">
-        <v>1</v>
-      </c>
-      <c r="G180" s="1">
-        <v>1</v>
+        <v>138</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="1" t="s">
-        <v>381</v>
+        <v>314</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>382</v>
+        <v>315</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>138</v>
@@ -4759,674 +4912,1175 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="30">
+      <c r="A183" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183" s="1">
+        <v>1</v>
+      </c>
+      <c r="F183" s="1">
+        <v>1</v>
+      </c>
+      <c r="G183" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="45">
+      <c r="A184" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E184" s="1">
+        <v>1</v>
+      </c>
+      <c r="F184" s="1">
+        <v>1</v>
+      </c>
+      <c r="G184" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="45">
+      <c r="A185" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G185" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="30">
+      <c r="A186" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186" s="1">
+        <v>1</v>
+      </c>
+      <c r="F186" s="1">
+        <v>1</v>
+      </c>
+      <c r="G186" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187" s="1">
+        <v>1</v>
+      </c>
+      <c r="F187" s="1">
+        <v>1</v>
+      </c>
+      <c r="G187" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="45">
+      <c r="A188" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188" s="1">
+        <v>1</v>
+      </c>
+      <c r="F188" s="1">
+        <v>1</v>
+      </c>
+      <c r="G188" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" s="6" customFormat="1">
+      <c r="A189" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D189" s="7"/>
+      <c r="E189" s="6">
+        <v>1</v>
+      </c>
+      <c r="F189" s="6">
+        <v>1</v>
+      </c>
+      <c r="G189" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" s="6" customFormat="1" ht="30">
+      <c r="A190" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D190" s="7"/>
+    </row>
+    <row r="191" spans="1:7" s="6" customFormat="1" ht="30">
+      <c r="A191" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G191" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" s="6" customFormat="1" ht="30">
+      <c r="A192" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D192" s="2"/>
+    </row>
+    <row r="193" spans="1:8" s="6" customFormat="1">
+      <c r="A193" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G193" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" s="6" customFormat="1" ht="30">
+      <c r="A194" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G194" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" s="6" customFormat="1" ht="30">
+      <c r="A195" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D195" s="2"/>
+    </row>
+    <row r="196" spans="1:8" s="6" customFormat="1" ht="30">
+      <c r="A196" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G196" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" s="6" customFormat="1" ht="30">
+      <c r="A197" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197" s="2"/>
+      <c r="E197" s="6">
+        <v>1</v>
+      </c>
+      <c r="F197" s="6">
+        <v>1</v>
+      </c>
+      <c r="G197" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" s="6" customFormat="1" ht="45">
+      <c r="A198" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" s="2"/>
+      <c r="E198" s="6">
+        <v>1</v>
+      </c>
+      <c r="F198" s="6">
+        <v>1</v>
+      </c>
+      <c r="G198" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" s="6" customFormat="1" ht="30">
+      <c r="A199" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" s="6">
+        <v>1</v>
+      </c>
+      <c r="F199" s="6">
+        <v>1</v>
+      </c>
+      <c r="G199" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E200" s="1">
+        <v>1</v>
+      </c>
+      <c r="F200" s="1">
+        <v>1</v>
+      </c>
+      <c r="G200" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="45">
+      <c r="A201" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201" s="1">
+        <v>1</v>
+      </c>
+      <c r="F201" s="1">
+        <v>1</v>
+      </c>
+      <c r="G201" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="30">
+      <c r="A202" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G202" s="1">
+        <v>1</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G203" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="45">
+      <c r="A204" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G204" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="30">
+      <c r="A205" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G205" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="45">
+      <c r="A206" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G206" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="45">
+      <c r="A207" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E207" s="1">
+        <v>1</v>
+      </c>
+      <c r="F207" s="1">
+        <v>1</v>
+      </c>
+      <c r="G207" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="45">
+      <c r="A208" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E208" s="1">
+        <v>1</v>
+      </c>
+      <c r="F208" s="1">
+        <v>1</v>
+      </c>
+      <c r="G208" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="1" t="s">
+      <c r="C210" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="1" t="s">
+      <c r="C211" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="1" t="s">
+      <c r="C212" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="1" t="s">
+      <c r="C213" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="1" t="s">
+      <c r="C214" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="1" t="s">
+      <c r="C215" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="1" t="s">
+      <c r="C216" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="1" t="s">
+      <c r="C217" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="1" t="s">
+      <c r="C218" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="1" t="s">
+      <c r="C219" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="1" t="s">
+      <c r="C220" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="1" t="s">
+      <c r="C221" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="30">
-      <c r="A195" s="1" t="s">
+      <c r="C222" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="30">
+      <c r="A223" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E195" s="1">
-        <v>1</v>
-      </c>
-      <c r="F195" s="1">
-        <v>1</v>
-      </c>
-      <c r="G195" s="1">
+      <c r="C223" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E223" s="1">
+        <v>1</v>
+      </c>
+      <c r="F223" s="1">
+        <v>1</v>
+      </c>
+      <c r="G223" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="60">
-      <c r="A196" s="1" t="s">
+    <row r="224" spans="1:7" ht="60">
+      <c r="A224" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B224" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E196" s="1">
-        <v>1</v>
-      </c>
-      <c r="F196" s="1">
-        <v>1</v>
-      </c>
-      <c r="G196" s="1">
+      <c r="C224" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E224" s="1">
+        <v>1</v>
+      </c>
+      <c r="F224" s="1">
+        <v>1</v>
+      </c>
+      <c r="G224" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="30">
-      <c r="A197" s="1" t="s">
+    <row r="225" spans="1:8" ht="30">
+      <c r="A225" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B225" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E197" s="1">
-        <v>1</v>
-      </c>
-      <c r="F197" s="1">
-        <v>1</v>
-      </c>
-      <c r="G197" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="1" t="s">
+      <c r="C225" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E225" s="1">
+        <v>1</v>
+      </c>
+      <c r="F225" s="1">
+        <v>1</v>
+      </c>
+      <c r="G225" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C198" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D198" s="2" t="s">
+      <c r="C226" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="G198" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="1" t="s">
+      <c r="G226" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B227" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D199" s="2" t="s">
+      <c r="C227" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="G199" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="30">
-      <c r="A200" s="1" t="s">
+      <c r="G227" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="30">
+      <c r="A228" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E200" s="1">
-        <v>1</v>
-      </c>
-      <c r="F200" s="1">
-        <v>1</v>
-      </c>
-      <c r="G200" s="1">
+      <c r="C228" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E228" s="1">
+        <v>1</v>
+      </c>
+      <c r="F228" s="1">
+        <v>1</v>
+      </c>
+      <c r="G228" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="60">
-      <c r="A201" s="1" t="s">
+    <row r="229" spans="1:8" ht="60">
+      <c r="A229" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E201" s="1">
-        <v>1</v>
-      </c>
-      <c r="F201" s="1">
-        <v>1</v>
-      </c>
-      <c r="G201" s="1">
+      <c r="C229" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E229" s="1">
+        <v>1</v>
+      </c>
+      <c r="F229" s="1">
+        <v>1</v>
+      </c>
+      <c r="G229" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="45">
-      <c r="A202" s="1" t="s">
+    <row r="230" spans="1:8" ht="45">
+      <c r="A230" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E202" s="1">
-        <v>1</v>
-      </c>
-      <c r="F202" s="1">
-        <v>1</v>
-      </c>
-      <c r="G202" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="30">
-      <c r="A203" s="1" t="s">
+      <c r="C230" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E230" s="1">
+        <v>1</v>
+      </c>
+      <c r="F230" s="1">
+        <v>1</v>
+      </c>
+      <c r="G230" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="30">
+      <c r="A231" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B231" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E203" s="1">
-        <v>1</v>
-      </c>
-      <c r="F203" s="1">
-        <v>1</v>
-      </c>
-      <c r="G203" s="1">
+      <c r="C231" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E231" s="1">
+        <v>1</v>
+      </c>
+      <c r="F231" s="1">
+        <v>1</v>
+      </c>
+      <c r="G231" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="45">
-      <c r="A204" s="1" t="s">
+    <row r="232" spans="1:8" ht="45">
+      <c r="A232" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E204" s="1">
-        <v>1</v>
-      </c>
-      <c r="F204" s="1">
-        <v>1</v>
-      </c>
-      <c r="G204" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="45">
-      <c r="A205" s="1" t="s">
+      <c r="C232" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E232" s="1">
+        <v>1</v>
+      </c>
+      <c r="F232" s="1">
+        <v>1</v>
+      </c>
+      <c r="G232" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="45">
+      <c r="A233" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B233" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D205" s="2" t="s">
+      <c r="C233" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="G205" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="30">
-      <c r="A206" s="1" t="s">
+      <c r="G233" s="1">
+        <v>1</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="30">
+      <c r="A234" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B234" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E206" s="1">
-        <v>1</v>
-      </c>
-      <c r="F206" s="1">
-        <v>1</v>
-      </c>
-      <c r="G206" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="45">
-      <c r="A207" s="1" t="s">
+      <c r="C234" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E234" s="1">
+        <v>1</v>
+      </c>
+      <c r="F234" s="1">
+        <v>1</v>
+      </c>
+      <c r="G234" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="45">
+      <c r="A235" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B235" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E207" s="1">
-        <v>1</v>
-      </c>
-      <c r="F207" s="1">
-        <v>1</v>
-      </c>
-      <c r="G207" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="30">
-      <c r="A208" s="1" t="s">
+      <c r="C235" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E235" s="1">
+        <v>1</v>
+      </c>
+      <c r="F235" s="1">
+        <v>1</v>
+      </c>
+      <c r="G235" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="30">
+      <c r="A236" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B236" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E208" s="1">
-        <v>1</v>
-      </c>
-      <c r="F208" s="1">
-        <v>1</v>
-      </c>
-      <c r="G208" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" ht="45">
-      <c r="A209" s="1" t="s">
+      <c r="C236" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E236" s="1">
+        <v>1</v>
+      </c>
+      <c r="F236" s="1">
+        <v>1</v>
+      </c>
+      <c r="G236" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="45">
+      <c r="A237" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B237" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E209" s="1">
-        <v>1</v>
-      </c>
-      <c r="F209" s="1">
-        <v>1</v>
-      </c>
-      <c r="G209" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="45">
-      <c r="A210" s="1" t="s">
+      <c r="C237" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E237" s="1">
+        <v>1</v>
+      </c>
+      <c r="F237" s="1">
+        <v>1</v>
+      </c>
+      <c r="G237" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="45">
+      <c r="A238" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B238" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D210" s="2" t="s">
+      <c r="C238" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="G210" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211" s="1" t="s">
+      <c r="G238" s="1">
+        <v>1</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B239" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E211" s="1">
-        <v>1</v>
-      </c>
-      <c r="F211" s="1">
-        <v>1</v>
-      </c>
-      <c r="G211" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="30">
-      <c r="A212" s="1" t="s">
+      <c r="C239" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E239" s="1">
+        <v>1</v>
+      </c>
+      <c r="F239" s="1">
+        <v>1</v>
+      </c>
+      <c r="G239" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="30">
+      <c r="A240" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B240" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E212" s="1">
-        <v>1</v>
-      </c>
-      <c r="F212" s="1">
-        <v>1</v>
-      </c>
-      <c r="G212" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="45">
-      <c r="A213" s="1" t="s">
+      <c r="C240" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E240" s="1">
+        <v>1</v>
+      </c>
+      <c r="F240" s="1">
+        <v>1</v>
+      </c>
+      <c r="G240" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="45">
+      <c r="A241" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B241" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E213" s="1">
-        <v>1</v>
-      </c>
-      <c r="F213" s="1">
-        <v>1</v>
-      </c>
-      <c r="G213" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="A214" s="1" t="s">
+      <c r="C241" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E241" s="1">
+        <v>1</v>
+      </c>
+      <c r="F241" s="1">
+        <v>1</v>
+      </c>
+      <c r="G241" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B242" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E214" s="1">
-        <v>1</v>
-      </c>
-      <c r="F214" s="1">
-        <v>1</v>
-      </c>
-      <c r="G214" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="30">
-      <c r="A215" s="1" t="s">
+      <c r="C242" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E242" s="1">
+        <v>1</v>
+      </c>
+      <c r="F242" s="1">
+        <v>1</v>
+      </c>
+      <c r="G242" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="30">
+      <c r="A243" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B243" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D215" s="2" t="s">
+      <c r="C243" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="G215" s="1">
-        <v>1</v>
-      </c>
-      <c r="H215" s="1" t="s">
+      <c r="G243" s="1">
+        <v>1</v>
+      </c>
+      <c r="H243" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="30">
-      <c r="A216" s="1" t="s">
+    <row r="244" spans="1:8" ht="30">
+      <c r="A244" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B244" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E216" s="1">
-        <v>1</v>
-      </c>
-      <c r="F216" s="1">
+      <c r="C244" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E244" s="1">
+        <v>1</v>
+      </c>
+      <c r="F244" s="1">
         <v>2</v>
       </c>
-      <c r="G216" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="45">
-      <c r="A217" s="1" t="s">
+      <c r="G244" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="45">
+      <c r="A245" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B245" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E217" s="1">
-        <v>1</v>
-      </c>
-      <c r="F217" s="1">
-        <v>1</v>
-      </c>
-      <c r="G217" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="45">
-      <c r="A218" s="1" t="s">
+      <c r="C245" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E245" s="1">
+        <v>1</v>
+      </c>
+      <c r="F245" s="1">
+        <v>1</v>
+      </c>
+      <c r="G245" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="45">
+      <c r="A246" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B246" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C246" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
-      <c r="A219" s="1" t="s">
+    <row r="247" spans="1:8">
+      <c r="A247" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B247" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C247" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="45">
-      <c r="A220" s="1" t="s">
+    <row r="248" spans="1:8" ht="45">
+      <c r="A248" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B248" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C220" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E220" s="1">
-        <v>1</v>
-      </c>
-      <c r="F220" s="1">
-        <v>1</v>
-      </c>
-      <c r="G220" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="A221" s="1" t="s">
+      <c r="C248" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E248" s="1">
+        <v>1</v>
+      </c>
+      <c r="F248" s="1">
+        <v>1</v>
+      </c>
+      <c r="G248" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B249" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E221" s="1">
-        <v>1</v>
-      </c>
-      <c r="F221" s="1">
-        <v>1</v>
-      </c>
-      <c r="G221" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="30">
-      <c r="A222" s="1" t="s">
+      <c r="C249" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E249" s="1">
+        <v>1</v>
+      </c>
+      <c r="F249" s="1">
+        <v>1</v>
+      </c>
+      <c r="G249" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="30">
+      <c r="A250" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B250" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C222" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D222" s="2" t="s">
+      <c r="C250" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="G222" s="1">
-        <v>1</v>
-      </c>
-      <c r="H222" s="1" t="s">
+      <c r="G250" s="1">
+        <v>1</v>
+      </c>
+      <c r="H250" s="1" t="s">
         <v>411</v>
       </c>
     </row>
